--- a/src/Leetcode 75 Questions (NeetCode on yt).xlsx
+++ b/src/Leetcode 75 Questions (NeetCode on yt).xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pramoda/Interview-Preparations/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pramoda/eclipse-workspace/JavaProject/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50AC931A-6B60-824E-95F4-AB3BE923EFED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0790751F-2DE1-424D-8CFC-00EE66B9410E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Follow-Up Tips" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="483">
   <si>
     <t>Video Solution</t>
   </si>
@@ -1145,13 +1145,565 @@
   </si>
   <si>
     <t>maintain curr median, and all num greater than med in a minHeap, and all num less than med in a maxHeap, after every insertion update median depending on odd/even num of elements;</t>
+  </si>
+  <si>
+    <t>1. Array</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Solved</t>
+  </si>
+  <si>
+    <t>2.Matrix</t>
+  </si>
+  <si>
+    <t>MXN Matrix set to zero</t>
+  </si>
+  <si>
+    <t>1- First check if row has 0, then check column has zero - Need more practice on this problem,</t>
+  </si>
+  <si>
+    <t>3. Matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rotate array 90 degree </t>
+  </si>
+  <si>
+    <t>Outer Loop through  half of the matrix length , inner loop (n-i-1)
+left -&gt; top
+bottom -&gt; left
+right -&gt; bottom
+top -&gt; right</t>
+  </si>
+  <si>
+    <t>4. String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse a string </t>
+  </si>
+  <si>
+    <t>loop througn the string upt n/2 then swap</t>
+  </si>
+  <si>
+    <t>5. String</t>
+  </si>
+  <si>
+    <t>Determine string has all unique characters</t>
+  </si>
+  <si>
+    <t>Create a boolean array with 128 characters and keep marking
+Complexity : O(n) and O(1) where n is the length of string</t>
+  </si>
+  <si>
+    <t>6. String</t>
+  </si>
+  <si>
+    <t>7.String</t>
+  </si>
+  <si>
+    <t>Trie</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cut the string into two parts x and y
+s1 = = xy = waterbottle
+x = wat
+y = erbottle
+s2 = yx = erbottlewat
+</t>
+  </si>
+  <si>
+    <t>Word rotatiion  is a substring of other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.String </t>
+  </si>
+  <si>
+    <t>Compress a word version 1: ccaaat -&gt; 2c3a1t</t>
+  </si>
+  <si>
+    <t>Use hash map to store key as character and value as actual count. For displaying  loop through hashmap, get key and associated value.</t>
+  </si>
+  <si>
+    <t>Compress version 2: ppoppppp -&gt; 2po5p</t>
+  </si>
+  <si>
+    <t>9.Math</t>
+  </si>
+  <si>
+    <t>Add Digits( Given an integer num, repeatedly add all its digits until the result has only one digit, and return it.)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/add-digits/</t>
+  </si>
+  <si>
+    <t>Option 1: Get the reminder%10  then divide the sum/10
+Option 2: 
+How does the above logic works? 
+The original number is divisible by 9 if and only if the sum of its digits is divisible by 9"
+If a number n is divisible by 9, then the sum of its digit until sum becomes single digit is always 9. For example, 
+Let, n = 2880 
+Sum of digits = 2 + 8 + 8 = 18: 18 = 1 + 8 = 9
+A number can be of the form 9x or 9x + k. For the first case, answer is always 9. For the second case, and is always k.
+Time Complexity: \mathcal{O}(1)O(1).
+Space Complexity: O(1)O(1).</t>
+  </si>
+  <si>
+    <t>10.Math</t>
+  </si>
+  <si>
+    <t>Add two number list</t>
+  </si>
+  <si>
+    <t>create a temp list with default 0 in it.
+loop through the two list unitl one of them are not empty, and collect data add them up along with reminder and store them in sum, check if sum greather 9 
+then sum = sum%10. keep adding sum into temp list. Don't forget to add remainder if any.</t>
+  </si>
+  <si>
+    <t>11. String</t>
+  </si>
+  <si>
+    <t>Anagrams, function should take two arguments  return boolean to check both strings anagrams to each other.</t>
+  </si>
+  <si>
+    <t>Sort them and compare ,</t>
+  </si>
+  <si>
+    <t>12.String</t>
+  </si>
+  <si>
+    <t>Find all characters in given string.</t>
+  </si>
+  <si>
+    <t>Option 1: 
+convert them into array. Loop through the target string and check in source string if less than that mean not found return false.
+Option 2:  Create hash map and store source characters as key value as index, then in second pass  loop through the target string to see its mathing or not.</t>
+  </si>
+  <si>
+    <t>13.Array</t>
+  </si>
+  <si>
+    <t>Intersection - Write a function, intersection, that takes in two arrays, a,b, as arguments. The function should return a new array containing elements that are in both of the two arrays.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Option 1: Loop through target array and check if source array has using array includes method  then push into resultant array.
+Option 2: Create a new set()  as mySet object and store first array to remove duplicate. Loop through the second array and check mySet  has number if yes, then add result into a new array and return that array.
+n = length of array a, m = length of array b
+Time: O(n+m)
+Space: O(n)</t>
+  </si>
+  <si>
+    <t>Write a function, pairProduct, that takes in an array and a target product as arguments. The function should return an array containing a pair of indices whose elements multiply to the given target. The indices returned must be unique.
+Be sure to return the indices, not the elements themselves.
+There is guaranteed to be one such pair whose product is the target.</t>
+  </si>
+  <si>
+    <t>create a hashmap store array number as key and value as index
+then check the complement , to get complement targetProduct/num 
+then return  [hashmap[complement], i]</t>
+  </si>
+  <si>
+    <t>Write a function, combineIntervals, that takes in an array of intervals as an argument. Each interval is an array containing a pair of numbers representing a start and end time. Your function should combine overlapping intervals and return an array containing the combined intervals
+Given two intervals:
+[1, 4] and [3, 7]
+The intervals overlap and
+should be combined into:
+[1, 7]</t>
+  </si>
+  <si>
+    <t>15.Array</t>
+  </si>
+  <si>
+    <t>14. Array</t>
+  </si>
+  <si>
+    <t>16.Array</t>
+  </si>
+  <si>
+    <t>Sort first array first element(only zeroth index) internal so that starting internal are ascending order.
+push the first interval  into an array called combined 
+Loop througth the intervals starting from second element from array. 
+Now declare a variable called lastinterval = combined[combined.length -1]
+Now, destructuring the lastInterval  two get start and end interval of newly added intervals
+Now, get the currentInterval from loop by destructuring current internal  then compare currentStart less than equal to lastEnd  if true then check currenEnd is greather than lastEnd  if true lastnterval[1] = currentEnd,
+If, outer if does not satisfied, combined.push(currentInterval) , internal for us. finally return combined array.
+n = number of intervals
+Time: O(nlogn)
+Space: O(n)</t>
+  </si>
+  <si>
+    <t>17.Array</t>
+  </si>
+  <si>
+    <t>https://structy.net/problems/premium/five-sort</t>
+  </si>
+  <si>
+    <t>https://structy.net/problems/premium/combine-intervals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FiveSort:five sort
+Write a function, fiveSort, that takes in an array of numbers as an argument. The function should rearrange elements of the array such that all 5s appear at the end. Your function should perform this operation in-place by mutating the original array. The function should return the array.
+Elements that are not 5 can appear in any order in the output, as long as all 5s are at the end of the array.
+Example:
+fiveSort([12, 5, 1, 5, 12, 7]);
+// -&gt; [12, 7, 1, 12, 5, 5] </t>
+  </si>
+  <si>
+    <t>Write a function, maxValue, that takes in array of numbers as an argument. The function should return the largest number in the array.
+Solve this without using any built-in array methods.
+You can assume that the array is non-empty.
+Example: maxValue([4, 7, 2, 8, 10, 9]); // -&gt; 10</t>
+  </si>
+  <si>
+    <t>https://structy.net/problems/max-value</t>
+  </si>
+  <si>
+    <t>18.Array</t>
+  </si>
+  <si>
+    <t>Options1 :Initialize a max a reasonble small. In this case lets declare as max = -Infinity, loop through the array element and compare against max where initial max value is -Infinity.
+n = length of array
+Time: O(n)
+Space: O(1)
+Option 2: we can use Math.max(...nums)  will return max element.</t>
+  </si>
+  <si>
+    <t>Is Prime 
+Write a function, isPrime, that takes in a number as an argument. The function should return a boolean indicating whether or not the given number is prime.
+A prime number is a number that is only divisible two distinct numbers: 1 and itself.
+For example, 7 is a prime because it is only divisible by 1 and 7. For example, 6 is not a prime because it is divisible by 1, 2, 3, and 6.
+You can assume that the input number is a positive integer.</t>
+  </si>
+  <si>
+    <t>https://structy.net/problems/is-prime</t>
+  </si>
+  <si>
+    <t>19.Array</t>
+  </si>
+  <si>
+    <t>Run a for loop  starting from 2 and less than equal to sqrt(n), and check n%i within the loop,  if its eqaul to 0 then its not prime.
+n = input number
+Time: O(square_root(n))
+Space: O(1)</t>
+  </si>
+  <si>
+    <t>Odd or Even : find a number to determine its odd or even</t>
+  </si>
+  <si>
+    <t>Just check last bit , if its 1 is odd othewise even (also call least significant bit)
+When you &amp;1 with any number, the digit remain the same.
+When AND with any number with 0 its zero 
+n&amp;1 == 1 ? 'Odd' : 'Even'</t>
+  </si>
+  <si>
+    <t>20. Array</t>
+  </si>
+  <si>
+    <t>Find unique number in the array i.e not repeated</t>
+  </si>
+  <si>
+    <t>XOR (^) (if and only if)
+ * a ^ 1  = a~ (a's compliment)
+ * a ^ 0   = a
+ * a ^ a  = 0
+Loop through the numbers unique = unique^num , everything will be zeroed except the unique element and stored in unique variable , because we are doing xor</t>
+  </si>
+  <si>
+    <t>This sounds easy but its tricky, this is a two pointer solution, first check if there is any 5 in lastIndex.
+If there is, then decrement lastIndex , else if check if there is any 5 in firstIndex. Swap it then increment firstIndex.
+Else keep incrementing firstIndex.
+n = array size
+Time: O(n)
+Space: O(1)</t>
+  </si>
+  <si>
+    <t>21.Array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+most frequent char
+Write a function, mostFrequentChar, that takes in a string as an argument. The function should return the most frequent character of the string. If there are ties, return the character that appears earlier in the string.
+You can assume that the input string is non-empty.
+</t>
+  </si>
+  <si>
+    <t>https://structy.net/problems/premium/most-frequent-char</t>
+  </si>
+  <si>
+    <t>22.Array</t>
+  </si>
+  <si>
+    <t>uncompress
+Write a function, uncompress, that takes in a string as an argument. The input string will be formatted into multiple groups according to the following pattern:
+&lt;number&gt;&lt;char&gt;
+for example, '2c' or '3a'.
+The function should return an uncompressed version of the string where each 'char' of a group is repeated 'number' times consecutively. You may assume that the input string is well-formed according to the previously mentioned pattern.</t>
+  </si>
+  <si>
+    <t>https://structy.net/problems/premium/uncompress</t>
+  </si>
+  <si>
+    <t>It’s a two pointer solution, we need a mechanism to search all starting numbers, declare a string variable with all numbers (0,1… 9). Check whether it’s a number using string includes method and keep incrementing j. we just ensure, jth position at character. in else block do string.slice(i, j) and get the total count for for loop to repeat the characters. then increment j and bring i to the jth position by i = j
+n = number of groups
+m = max num found in any group
+Time: O(n*m)
+Space: O(n*m)</t>
+  </si>
+  <si>
+    <t>Using two pointers ,  when both I and j matches , increment j , your number of characters  
+would be (j - I)  also  bring i to the same place as j by I = j ,  keep pushing into a result array
+run unit  j &lt;= length because j should be inclusive.</t>
+  </si>
+  <si>
+    <t>HashMap Solution: 
+Two loops, first loop store all characters with their repeated number of count in hashMap, then second 
+Loop through the string input and compare the input string value against hashMap value into max variable. End of the loop max variable contains the max occurenrece of character.
+n = length of string
+Time: O(n)
+Space: O(n)</t>
+  </si>
+  <si>
+    <t>One pass Hashmap solution : find complement = target - num ( nums array index)
+check if complement in hasMap then return [hashmap[complement], index]
+else hasmap[numbers[i]] = index
+Key :  your key would be actual value 
+value = array index
+n = length of array
+Time: O(n)
+Space: O(n)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.LinkList </t>
+  </si>
+  <si>
+    <t>linked list values
+Write a function, linkedListValues, that takes in the head of a linked list as an argument. The function should return an array containing all values of the nodes in the linked list.</t>
+  </si>
+  <si>
+    <t>https://structy.net/problems/linked-list-values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Option#1
+while head!=null, then push the node value into new array.
+n = number of nodes
+Time: O(n)
+Space: O(n)
+Option 2 #  recursive solution
+n = number of nodes
+Time: O(n)
+Space: O(n)
+</t>
+  </si>
+  <si>
+    <t>24. LinkedList</t>
+  </si>
+  <si>
+    <t>sum list
+Write a function, sumList, that takes in the head of a linked list containing numbers as an argument. The function should return the total sum of all values in the linked list.</t>
+  </si>
+  <si>
+    <t>https://structy.net/problems/sum-list</t>
+  </si>
+  <si>
+    <t>Options#1: while head!=null , keep adding sum into the sum value.
+n = number of nodes
+Time: O(n)
+Space: O(1)
+Options#2 recursive, where your base case if head === null  return 0
+return head.val + sumList(head.next)
+n = number of nodes
+Time: O(n)
+Space: O(n)</t>
+  </si>
+  <si>
+    <t>25. LinkedList</t>
+  </si>
+  <si>
+    <t>get node value
+Write a function, getNodeValue, that takes in the head of a linked list and an index. The function should return the value of the linked list at the specified index.
+If there is no node at the given index, then return null.</t>
+  </si>
+  <si>
+    <t>https://structy.net/problems/get-node-value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Option#1 while head !=null , set the counter as 0 and keep incrementing and check with index then return head.val 
+n = number of nodes
+Time: O(n)
+Space: O(1)
+Option#2  Recursive
+Base case 1  if(head === null) return null;
+Base case 2 if(index === 0) return head.val // that means we at the right index.
+return getNodeValue(head.next, index -1) // keep decrement index
+</t>
+  </si>
+  <si>
+    <t>26.LinkedList</t>
+  </si>
+  <si>
+    <t>linked list find
+Write a function, linkedListFind, that takes in the head of a linked list and a target value. The function should return a boolean indicating whether or not the linked list contains the target.</t>
+  </si>
+  <si>
+    <t>https://structy.net/problems/linked-list-find</t>
+  </si>
+  <si>
+    <t>Option # 1: while head!=null  and check head.val === target then return true else false.
+n = number of nodes
+Time: O(n)
+Space: O(1)
+Option #2: Recursive
+There are two base cases. If head == null return false. If head.val === target return true.
+return linkedListFind(head.next, target)
+n = number of nodes
+Time: O(n)
+Space: O(n)</t>
+  </si>
+  <si>
+    <t>27.LinkedList</t>
+  </si>
+  <si>
+    <t>reverse list
+Write a function, reverseList, that takes in the head of a linked list as an argument. The function should reverse the order of the nodes in the linked list in-place and return the new head of the reversed linked list.</t>
+  </si>
+  <si>
+    <t>https://structy.net/problems/reverse-list</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Option #1 : Recursive way,
+// a -&gt; b -&gt; c -&gt; d -&gt; e -&gt; f-&gt; null
+Base case:
+current === null or current.next === null.
+Return Node p   = recursive(current.next)
+current.next,next = current // which is  null in this case.  'f', now pointing to current 'e'
+Now, beak the cycling link current.next = null, which is e -&gt; f. repeat this process until a =&gt; null
+return p.
+n = number of nodes
+Time: O(n)
+Space: O(n)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Option #2:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Null  &lt;-  a      b -&gt; c 
+prev.  curr.    next
+Two pointer strategy, first let prev = null, while current !=null
+Now, change the pointer for current to null. Now we broke the link from current to current.next  and change prev to current and current = next .
+keep moving next and prev, unitl current.next point to null. By the time we hit null, prev pointing to last element.
+Time: O(n)
+Space: O(1)</t>
+    </r>
+  </si>
+  <si>
+    <t>28.LinkedList</t>
+  </si>
+  <si>
+    <t>zipper lists
+Write a function, zipperLists, that takes in the head of two linked lists as arguments. The function should zipper the two lists together into single linked list by alternating nodes. If one of the linked lists is longer than the other, the resulting list should terminate with the remaining nodes. The function should return the head of the zippered linked list.
+Do this in-place, by mutating the original Nodes.
+You may assume that both input lists are non-empty.</t>
+  </si>
+  <si>
+    <t>https://structy.net/problems/zipper-lists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peronally I feel recursive approach is the best
+Option#1 
+Save the reference const next1 = head1.next before mutating const next2 = head2.next
+head1.next = head2
+head2.next = zipperList(next1,next2)
+officourse check condition for exahaust list to copy over
+Option#2 Iterative but its little tricky to understand using two pointer strategy.
+declare a variable let tail = head1 
+loop through current1!=null &amp;&amp; current2!=null
+we need a counter to determine whether its a odd or even to determine which list value need to be picked. 
+End of the lopp we need to check both of the list whether its exhausted list or not if(current1!=null)  tail.next = current1 
+</t>
+  </si>
+  <si>
+    <t>29.LinkedList</t>
+  </si>
+  <si>
+    <t>https://structy.net/problems/premium/merge-lists</t>
+  </si>
+  <si>
+    <t>merge lists
+Write a function, mergeLists, that takes in the head of two sorted linked lists as arguments. The function should merge the two lists together into single sorted linked list. The function should return the head of the merged linked list.
+Do this in-place, by mutating the original Nodes.
+You may assume that both input lists are non-empty and contain increasing sorted numbers.</t>
+  </si>
+  <si>
+    <t>Option #2: Recursive
+Its pretty easy, add base conditions where both list is not null and if any one of the list is null return other way around.
+check if (a.aval &lt; = b.val)  then take the element from A ,  that can be done in 
+A.next = sortMerge(a .next, b) ; return A, its popped out from the stack when we hit the base case.
+else B.next = sortmerge(A, B.next) and return B
+n = length of list 1
+m = length of list 2
+Time: O(min(n, m))
+Space: O(min(n, m))
+Option # 2 : Iterative
+we can do by using a dummyNode and return that dummyNode.next at the end
+let list3 = dummyHead;
+loop through the both the list and compare
+if(l1.val &lt;= l2.va) then l3.next = l1  point to l1 then move the pointer of l1
+else build the link to l2 
+l3 = l3.next;
+check for exahust list for l1 and l2
+n = length of list 1
+m = length of list 2
+Time: O(min(n, m))
+Space: O(1)</t>
+  </si>
+  <si>
+    <t>30. LinkedList</t>
+  </si>
+  <si>
+    <t>https://structy.net/problems/premium/is-univalue-list</t>
+  </si>
+  <si>
+    <t>is univalue list
+Write a function, isUnivalueList, that takes in the head of a linked list as an argument. The function should return a boolean indicating whether or not the linked list contains exactly one unique value.
+You may assume that the input list is non-empty.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Option#1 Take the first item from list and compare with next item  if both does not equal to return false its true.
+n = number of nodes
+Time: O(n)
+Space: O(1)
+Option#2 Recursive, its very easy solution, if you can't do it that means you does not know recursion
+just pass a prev = null  as default so that we can overide next time.
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1235,8 +1787,21 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1285,6 +1850,30 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1298,28 +1887,110 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFC809"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1532,20 +2203,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E1000"/>
+  <dimension ref="A1:E999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="E109" sqref="E109"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="43" customWidth="1"/>
-    <col min="3" max="3" width="43.5" customWidth="1"/>
-    <col min="4" max="4" width="72.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="167.5" customWidth="1"/>
+    <col min="1" max="1" width="31.5" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" customWidth="1"/>
+    <col min="3" max="3" width="52.33203125" customWidth="1"/>
+    <col min="4" max="4" width="40.33203125" customWidth="1"/>
+    <col min="5" max="5" width="80" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1557,4058 +2231,4407 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="4" t="s">
+    <row r="12" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A12" s="16"/>
+      <c r="B12" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="4" t="s">
+    <row r="13" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A14" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="7" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A22" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="7" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A25" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A26" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A27" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="7" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A29" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="7" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A30" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="7" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A31" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="7" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A32" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="10" t="s">
+    <row r="33" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A33" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="7" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="10" t="s">
+    <row r="34" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A34" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="7" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="10" t="s">
+    <row r="35" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A35" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="7" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A36" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="7" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
+    <row r="37" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A37" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="7" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="7" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
+    <row r="39" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A39" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="12" t="s">
+    <row r="40" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A40" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="7" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
+    <row r="41" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A41" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="7" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
+    <row r="42" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="7" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
+    <row r="43" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A43" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="7" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
+    <row r="44" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A44" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="7" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
+    <row r="45" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A45" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D45" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E45" s="7" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
+    <row r="46" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D46" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E46" s="7" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
+    <row r="47" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A47" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D47" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E47" s="7" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
+    <row r="48" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="D48" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E48" s="7" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
+    <row r="49" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A49" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D49" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="E49" s="7" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
+    <row r="50" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A50" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D50" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E50" s="7" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
+    <row r="51" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A51" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D51" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="E51" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
+    <row r="52" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A52" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D52" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="E52" s="7" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
+    <row r="53" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A53" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C53" s="22" t="s">
         <v>258</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="D53" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="E53" s="7" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="D54" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="E54" s="7" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
+    <row r="55" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A55" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="D55" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="E55" s="7" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="s">
+    <row r="56" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A56" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="D56" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="E56" s="7" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="D57" s="6" t="s">
+      <c r="D57" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="E57" s="7" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
+    <row r="58" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A58" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D58" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="E58" s="7" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
+    <row r="59" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A59" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="D59" s="6" t="s">
+      <c r="D59" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="E59" s="7" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="13" t="s">
+    <row r="60" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A60" s="26" t="s">
         <v>289</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="B60" s="24" t="s">
         <v>290</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="D60" s="6" t="s">
+      <c r="D60" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="E60" s="4" t="s">
+      <c r="E60" s="7" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
+    <row r="61" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A61" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C61" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="D61" s="6" t="s">
+      <c r="D61" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="E61" s="7" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="3" t="s">
+    <row r="62" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A62" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="D62" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="E62" s="4" t="s">
+      <c r="E62" s="7" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
+    <row r="63" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A63" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="D63" s="6" t="s">
+      <c r="D63" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="E63" s="4" t="s">
+      <c r="E63" s="7" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="3" t="s">
+    <row r="64" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A64" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="C64" s="22" t="s">
         <v>311</v>
       </c>
-      <c r="D64" s="6" t="s">
+      <c r="D64" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="E64" s="4" t="s">
+      <c r="E64" s="7" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="3" t="s">
+    <row r="65" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A65" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" s="15" t="s">
         <v>316</v>
       </c>
-      <c r="D65" s="6" t="s">
+      <c r="D65" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="E65" s="4" t="s">
+      <c r="E65" s="7" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="3" t="s">
+    <row r="66" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A66" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="C66" s="22" t="s">
         <v>321</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="D66" s="14" t="s">
         <v>322</v>
       </c>
-      <c r="E66" s="4" t="s">
+      <c r="E66" s="7" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C67" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="D67" s="6" t="s">
+      <c r="D67" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="E67" s="4" t="s">
+      <c r="E67" s="7" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="3" t="s">
+    <row r="68" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A68" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C68" s="15" t="s">
         <v>330</v>
       </c>
-      <c r="D68" s="6" t="s">
+      <c r="D68" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="E68" s="4" t="s">
+      <c r="E68" s="7" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="3" t="s">
+    <row r="69" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A69" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" s="15" t="s">
         <v>335</v>
       </c>
-      <c r="D69" s="6" t="s">
+      <c r="D69" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="E69" s="4" t="s">
+      <c r="E69" s="7" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="3" t="s">
+    <row r="70" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A70" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C70" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="D70" s="6" t="s">
+      <c r="D70" s="14" t="s">
         <v>341</v>
       </c>
-      <c r="E70" s="4" t="s">
+      <c r="E70" s="7" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="3" t="s">
+    <row r="71" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A71" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="D71" s="6" t="s">
+      <c r="D71" s="14" t="s">
         <v>346</v>
       </c>
-      <c r="E71" s="4" t="s">
+      <c r="E71" s="7" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="3" t="s">
+    <row r="72" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A72" s="12" t="s">
         <v>348</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C72" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="D72" s="6" t="s">
+      <c r="D72" s="14" t="s">
         <v>351</v>
       </c>
-      <c r="E72" s="4" t="s">
+      <c r="E72" s="7" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" s="3" t="s">
+    <row r="73" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A73" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="15" t="s">
         <v>355</v>
       </c>
-      <c r="D73" s="6" t="s">
+      <c r="D73" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="E73" s="4" t="s">
+      <c r="E73" s="7" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="3" t="s">
+    <row r="74" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A74" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="C74" s="9" t="s">
+      <c r="C74" s="22" t="s">
         <v>360</v>
       </c>
-      <c r="D74" s="6" t="s">
+      <c r="D74" s="14" t="s">
         <v>361</v>
       </c>
-      <c r="E74" s="4" t="s">
+      <c r="E74" s="7" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="3" t="s">
+    <row r="75" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A75" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="C75" s="9" t="s">
+      <c r="C75" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="D75" s="6" t="s">
+      <c r="D75" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="E75" s="4" t="s">
+      <c r="E75" s="7" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="3" t="s">
+    <row r="76" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A76" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B76" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C76" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="D76" s="6" t="s">
+      <c r="D76" s="14" t="s">
         <v>368</v>
       </c>
-      <c r="E76" s="4" t="s">
+      <c r="E76" s="7" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="3" t="s">
+    <row r="77" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A77" s="12" t="s">
         <v>370</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="C77" s="9" t="s">
+      <c r="C77" s="22" t="s">
         <v>372</v>
       </c>
-      <c r="D77" s="8" t="s">
+      <c r="D77" s="19" t="s">
         <v>373</v>
       </c>
-      <c r="E77" s="4" t="s">
+      <c r="E77" s="7" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="14"/>
-    </row>
-    <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="14"/>
-    </row>
-    <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="14"/>
-    </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="14"/>
-    </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="14"/>
-    </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="14"/>
-    </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="14"/>
-    </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="14"/>
-    </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="14"/>
-    </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="14"/>
-    </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="14"/>
-    </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="14"/>
-    </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="14"/>
-    </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="14"/>
-    </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="14"/>
-    </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="14"/>
-    </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="14"/>
-    </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="14"/>
-    </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="14"/>
-    </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="14"/>
-    </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="14"/>
-    </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="14"/>
-    </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="14"/>
-    </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="14"/>
-    </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="14"/>
-    </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="14"/>
-    </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="14"/>
-    </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="14"/>
-    </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="14"/>
-    </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="14"/>
-    </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="14"/>
-    </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="14"/>
-    </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="14"/>
-    </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="14"/>
-    </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="14"/>
+    <row r="78" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="B78" s="27"/>
+      <c r="C78" s="27"/>
+      <c r="D78" s="27"/>
+      <c r="E78" s="27"/>
+    </row>
+    <row r="79" spans="1:5" ht="99" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="E79" s="31" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="8"/>
+      <c r="B80" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="5" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="88" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="28"/>
+      <c r="B81" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="28"/>
+      <c r="B82" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="28"/>
+      <c r="B83" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="28"/>
+      <c r="B84" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="29"/>
+      <c r="B85" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="D85" s="4"/>
+      <c r="E85" s="8" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="29"/>
+      <c r="B86" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="D86" s="4"/>
+      <c r="E86" s="8" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="29"/>
+      <c r="B87" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="D87" s="4"/>
+      <c r="E87" s="10" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="159" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="29"/>
+      <c r="B88" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D88" s="30" t="s">
+        <v>402</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="86" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="29"/>
+      <c r="B89" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="D89" s="29"/>
+      <c r="E89" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="29"/>
+      <c r="B90" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="D90" s="4"/>
+      <c r="E90" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="83" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="29"/>
+      <c r="B91" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="D91" s="4"/>
+      <c r="E91" s="8" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="119" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="29"/>
+      <c r="B92" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="D92" s="4"/>
+      <c r="E92" s="8" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="65" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="29"/>
+      <c r="B93" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="D93" s="4"/>
+      <c r="E93" s="8" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="177" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="29"/>
+      <c r="B94" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="E94" s="10" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="167" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="29"/>
+      <c r="B95" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="E95" s="10" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="134" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="29"/>
+      <c r="B96" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="E96" s="10" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="196" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="29"/>
+      <c r="B97" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="E97" s="10" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="29"/>
+      <c r="B98" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="D98" s="4"/>
+      <c r="E98" s="10" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="111" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="1"/>
+      <c r="B99" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="E99" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="121" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="1"/>
+      <c r="B100" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="E100" s="10" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="165" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="1"/>
+      <c r="B101" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="D101" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="E101" s="10" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="122" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="1"/>
+      <c r="B102" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="D102" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="E102" s="10" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="137" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="1"/>
+      <c r="B103" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="D103" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="E103" s="10" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="149" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="1"/>
+      <c r="B104" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="D104" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="E104" s="10" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="168" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="1"/>
+      <c r="B105" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="D105" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="E105" s="10" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="337" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="1"/>
+      <c r="B106" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="D106" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="E106" s="10" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="209" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="1"/>
+      <c r="B107" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="D107" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="E107" s="10" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="339" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="1"/>
+      <c r="B108" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="D108" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="E108" s="10" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="122" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="1"/>
+      <c r="B109" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="D109" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="E109" s="10" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="1"/>
+    </row>
+    <row r="111" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="1"/>
+    </row>
+    <row r="112" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="1"/>
     </row>
     <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="14"/>
+      <c r="A113" s="1"/>
     </row>
     <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="14"/>
+      <c r="A114" s="1"/>
     </row>
     <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="14"/>
+      <c r="A115" s="1"/>
     </row>
     <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="14"/>
+      <c r="A116" s="1"/>
     </row>
     <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="14"/>
+      <c r="A117" s="1"/>
     </row>
     <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="14"/>
+      <c r="A118" s="1"/>
     </row>
     <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="14"/>
+      <c r="A119" s="1"/>
     </row>
     <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="14"/>
+      <c r="A120" s="1"/>
     </row>
     <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="14"/>
+      <c r="A121" s="1"/>
     </row>
     <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="14"/>
+      <c r="A122" s="1"/>
     </row>
     <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="14"/>
+      <c r="A123" s="1"/>
     </row>
     <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="14"/>
+      <c r="A124" s="1"/>
     </row>
     <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="14"/>
+      <c r="A125" s="1"/>
     </row>
     <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="14"/>
+      <c r="A126" s="1"/>
     </row>
     <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="14"/>
+      <c r="A127" s="1"/>
     </row>
     <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A128" s="14"/>
+      <c r="A128" s="1"/>
     </row>
     <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A129" s="14"/>
+      <c r="A129" s="1"/>
     </row>
     <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="14"/>
+      <c r="A130" s="1"/>
     </row>
     <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="14"/>
+      <c r="A131" s="1"/>
     </row>
     <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="14"/>
+      <c r="A132" s="1"/>
     </row>
     <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="14"/>
+      <c r="A133" s="1"/>
     </row>
     <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="14"/>
+      <c r="A134" s="1"/>
     </row>
     <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="14"/>
+      <c r="A135" s="1"/>
     </row>
     <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A136" s="14"/>
+      <c r="A136" s="1"/>
     </row>
     <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="14"/>
+      <c r="A137" s="1"/>
     </row>
     <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A138" s="14"/>
+      <c r="A138" s="1"/>
     </row>
     <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A139" s="14"/>
+      <c r="A139" s="1"/>
     </row>
     <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A140" s="14"/>
+      <c r="A140" s="1"/>
     </row>
     <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A141" s="14"/>
+      <c r="A141" s="1"/>
     </row>
     <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="14"/>
+      <c r="A142" s="1"/>
     </row>
     <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A143" s="14"/>
+      <c r="A143" s="1"/>
     </row>
     <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="14"/>
+      <c r="A144" s="1"/>
     </row>
     <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A145" s="14"/>
+      <c r="A145" s="1"/>
     </row>
     <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A146" s="14"/>
+      <c r="A146" s="1"/>
     </row>
     <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A147" s="14"/>
+      <c r="A147" s="1"/>
     </row>
     <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A148" s="14"/>
+      <c r="A148" s="1"/>
     </row>
     <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A149" s="14"/>
+      <c r="A149" s="1"/>
     </row>
     <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A150" s="14"/>
+      <c r="A150" s="1"/>
     </row>
     <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A151" s="14"/>
+      <c r="A151" s="1"/>
     </row>
     <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A152" s="14"/>
+      <c r="A152" s="1"/>
     </row>
     <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A153" s="14"/>
+      <c r="A153" s="1"/>
     </row>
     <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A154" s="14"/>
+      <c r="A154" s="1"/>
     </row>
     <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A155" s="14"/>
+      <c r="A155" s="1"/>
     </row>
     <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A156" s="14"/>
+      <c r="A156" s="1"/>
     </row>
     <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A157" s="14"/>
+      <c r="A157" s="1"/>
     </row>
     <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A158" s="14"/>
+      <c r="A158" s="1"/>
     </row>
     <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A159" s="14"/>
+      <c r="A159" s="1"/>
     </row>
     <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A160" s="14"/>
+      <c r="A160" s="1"/>
     </row>
     <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A161" s="14"/>
+      <c r="A161" s="1"/>
     </row>
     <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A162" s="14"/>
+      <c r="A162" s="1"/>
     </row>
     <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A163" s="14"/>
+      <c r="A163" s="1"/>
     </row>
     <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A164" s="14"/>
+      <c r="A164" s="1"/>
     </row>
     <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A165" s="14"/>
+      <c r="A165" s="1"/>
     </row>
     <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A166" s="14"/>
+      <c r="A166" s="1"/>
     </row>
     <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A167" s="14"/>
+      <c r="A167" s="1"/>
     </row>
     <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A168" s="14"/>
+      <c r="A168" s="1"/>
     </row>
     <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A169" s="14"/>
+      <c r="A169" s="1"/>
     </row>
     <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A170" s="14"/>
+      <c r="A170" s="1"/>
     </row>
     <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A171" s="14"/>
+      <c r="A171" s="1"/>
     </row>
     <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A172" s="14"/>
+      <c r="A172" s="1"/>
     </row>
     <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A173" s="14"/>
+      <c r="A173" s="1"/>
     </row>
     <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A174" s="14"/>
+      <c r="A174" s="1"/>
     </row>
     <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A175" s="14"/>
+      <c r="A175" s="1"/>
     </row>
     <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A176" s="14"/>
+      <c r="A176" s="1"/>
     </row>
     <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A177" s="14"/>
+      <c r="A177" s="1"/>
     </row>
     <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A178" s="14"/>
+      <c r="A178" s="1"/>
     </row>
     <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A179" s="14"/>
+      <c r="A179" s="1"/>
     </row>
     <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A180" s="14"/>
+      <c r="A180" s="1"/>
     </row>
     <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A181" s="14"/>
+      <c r="A181" s="1"/>
     </row>
     <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A182" s="14"/>
+      <c r="A182" s="1"/>
     </row>
     <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A183" s="14"/>
+      <c r="A183" s="1"/>
     </row>
     <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A184" s="14"/>
+      <c r="A184" s="1"/>
     </row>
     <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A185" s="14"/>
+      <c r="A185" s="1"/>
     </row>
     <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A186" s="14"/>
+      <c r="A186" s="1"/>
     </row>
     <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A187" s="14"/>
+      <c r="A187" s="1"/>
     </row>
     <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A188" s="14"/>
+      <c r="A188" s="1"/>
     </row>
     <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A189" s="14"/>
+      <c r="A189" s="1"/>
     </row>
     <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A190" s="14"/>
+      <c r="A190" s="1"/>
     </row>
     <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A191" s="14"/>
+      <c r="A191" s="1"/>
     </row>
     <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A192" s="14"/>
+      <c r="A192" s="1"/>
     </row>
     <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A193" s="14"/>
+      <c r="A193" s="1"/>
     </row>
     <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A194" s="14"/>
+      <c r="A194" s="1"/>
     </row>
     <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A195" s="14"/>
+      <c r="A195" s="1"/>
     </row>
     <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A196" s="14"/>
+      <c r="A196" s="1"/>
     </row>
     <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A197" s="14"/>
+      <c r="A197" s="1"/>
     </row>
     <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A198" s="14"/>
+      <c r="A198" s="1"/>
     </row>
     <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A199" s="14"/>
+      <c r="A199" s="1"/>
     </row>
     <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A200" s="14"/>
+      <c r="A200" s="1"/>
     </row>
     <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A201" s="14"/>
+      <c r="A201" s="1"/>
     </row>
     <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A202" s="14"/>
+      <c r="A202" s="1"/>
     </row>
     <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A203" s="14"/>
+      <c r="A203" s="1"/>
     </row>
     <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A204" s="14"/>
+      <c r="A204" s="1"/>
     </row>
     <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A205" s="14"/>
+      <c r="A205" s="1"/>
     </row>
     <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A206" s="14"/>
+      <c r="A206" s="1"/>
     </row>
     <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A207" s="14"/>
+      <c r="A207" s="1"/>
     </row>
     <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A208" s="14"/>
+      <c r="A208" s="1"/>
     </row>
     <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A209" s="14"/>
+      <c r="A209" s="1"/>
     </row>
     <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A210" s="14"/>
+      <c r="A210" s="1"/>
     </row>
     <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A211" s="14"/>
+      <c r="A211" s="1"/>
     </row>
     <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A212" s="14"/>
+      <c r="A212" s="1"/>
     </row>
     <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A213" s="14"/>
+      <c r="A213" s="1"/>
     </row>
     <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A214" s="14"/>
+      <c r="A214" s="1"/>
     </row>
     <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A215" s="14"/>
+      <c r="A215" s="1"/>
     </row>
     <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A216" s="14"/>
+      <c r="A216" s="1"/>
     </row>
     <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A217" s="14"/>
+      <c r="A217" s="1"/>
     </row>
     <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A218" s="14"/>
+      <c r="A218" s="1"/>
     </row>
     <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A219" s="14"/>
+      <c r="A219" s="1"/>
     </row>
     <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A220" s="14"/>
+      <c r="A220" s="1"/>
     </row>
     <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A221" s="14"/>
+      <c r="A221" s="1"/>
     </row>
     <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A222" s="14"/>
+      <c r="A222" s="1"/>
     </row>
     <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A223" s="14"/>
+      <c r="A223" s="1"/>
     </row>
     <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A224" s="14"/>
+      <c r="A224" s="1"/>
     </row>
     <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A225" s="14"/>
+      <c r="A225" s="1"/>
     </row>
     <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A226" s="14"/>
+      <c r="A226" s="1"/>
     </row>
     <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A227" s="14"/>
+      <c r="A227" s="1"/>
     </row>
     <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A228" s="14"/>
+      <c r="A228" s="1"/>
     </row>
     <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A229" s="14"/>
+      <c r="A229" s="1"/>
     </row>
     <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A230" s="14"/>
+      <c r="A230" s="1"/>
     </row>
     <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A231" s="14"/>
+      <c r="A231" s="1"/>
     </row>
     <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A232" s="14"/>
+      <c r="A232" s="1"/>
     </row>
     <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A233" s="14"/>
+      <c r="A233" s="1"/>
     </row>
     <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A234" s="14"/>
+      <c r="A234" s="1"/>
     </row>
     <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A235" s="14"/>
+      <c r="A235" s="1"/>
     </row>
     <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A236" s="14"/>
+      <c r="A236" s="1"/>
     </row>
     <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A237" s="14"/>
+      <c r="A237" s="1"/>
     </row>
     <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A238" s="14"/>
+      <c r="A238" s="1"/>
     </row>
     <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A239" s="14"/>
+      <c r="A239" s="1"/>
     </row>
     <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A240" s="14"/>
+      <c r="A240" s="1"/>
     </row>
     <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A241" s="14"/>
+      <c r="A241" s="1"/>
     </row>
     <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A242" s="14"/>
+      <c r="A242" s="1"/>
     </row>
     <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A243" s="14"/>
+      <c r="A243" s="1"/>
     </row>
     <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A244" s="14"/>
+      <c r="A244" s="1"/>
     </row>
     <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A245" s="14"/>
+      <c r="A245" s="1"/>
     </row>
     <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A246" s="14"/>
+      <c r="A246" s="1"/>
     </row>
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A247" s="14"/>
+      <c r="A247" s="1"/>
     </row>
     <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A248" s="14"/>
+      <c r="A248" s="1"/>
     </row>
     <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A249" s="14"/>
+      <c r="A249" s="1"/>
     </row>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A250" s="14"/>
+      <c r="A250" s="1"/>
     </row>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A251" s="14"/>
+      <c r="A251" s="1"/>
     </row>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A252" s="14"/>
+      <c r="A252" s="1"/>
     </row>
     <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A253" s="14"/>
+      <c r="A253" s="1"/>
     </row>
     <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A254" s="14"/>
+      <c r="A254" s="1"/>
     </row>
     <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A255" s="14"/>
+      <c r="A255" s="1"/>
     </row>
     <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A256" s="14"/>
+      <c r="A256" s="1"/>
     </row>
     <row r="257" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A257" s="14"/>
+      <c r="A257" s="1"/>
     </row>
     <row r="258" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A258" s="14"/>
+      <c r="A258" s="1"/>
     </row>
     <row r="259" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A259" s="14"/>
+      <c r="A259" s="1"/>
     </row>
     <row r="260" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A260" s="14"/>
+      <c r="A260" s="1"/>
     </row>
     <row r="261" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A261" s="14"/>
+      <c r="A261" s="1"/>
     </row>
     <row r="262" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A262" s="14"/>
+      <c r="A262" s="1"/>
     </row>
     <row r="263" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A263" s="14"/>
+      <c r="A263" s="1"/>
     </row>
     <row r="264" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A264" s="14"/>
+      <c r="A264" s="1"/>
     </row>
     <row r="265" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A265" s="14"/>
+      <c r="A265" s="1"/>
     </row>
     <row r="266" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A266" s="14"/>
+      <c r="A266" s="1"/>
     </row>
     <row r="267" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A267" s="14"/>
+      <c r="A267" s="1"/>
     </row>
     <row r="268" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A268" s="14"/>
+      <c r="A268" s="1"/>
     </row>
     <row r="269" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A269" s="14"/>
+      <c r="A269" s="1"/>
     </row>
     <row r="270" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A270" s="14"/>
+      <c r="A270" s="1"/>
     </row>
     <row r="271" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A271" s="14"/>
+      <c r="A271" s="1"/>
     </row>
     <row r="272" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A272" s="14"/>
+      <c r="A272" s="1"/>
     </row>
     <row r="273" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A273" s="14"/>
+      <c r="A273" s="1"/>
     </row>
     <row r="274" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A274" s="14"/>
+      <c r="A274" s="1"/>
     </row>
     <row r="275" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A275" s="14"/>
+      <c r="A275" s="1"/>
     </row>
     <row r="276" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A276" s="14"/>
+      <c r="A276" s="1"/>
     </row>
     <row r="277" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A277" s="14"/>
+      <c r="A277" s="1"/>
     </row>
     <row r="278" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A278" s="14"/>
+      <c r="A278" s="1"/>
     </row>
     <row r="279" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A279" s="14"/>
+      <c r="A279" s="1"/>
     </row>
     <row r="280" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A280" s="14"/>
+      <c r="A280" s="1"/>
     </row>
     <row r="281" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A281" s="14"/>
+      <c r="A281" s="1"/>
     </row>
     <row r="282" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A282" s="14"/>
+      <c r="A282" s="1"/>
     </row>
     <row r="283" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A283" s="14"/>
+      <c r="A283" s="1"/>
     </row>
     <row r="284" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A284" s="14"/>
+      <c r="A284" s="1"/>
     </row>
     <row r="285" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A285" s="14"/>
+      <c r="A285" s="1"/>
     </row>
     <row r="286" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A286" s="14"/>
+      <c r="A286" s="1"/>
     </row>
     <row r="287" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A287" s="14"/>
+      <c r="A287" s="1"/>
     </row>
     <row r="288" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A288" s="14"/>
+      <c r="A288" s="1"/>
     </row>
     <row r="289" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A289" s="14"/>
+      <c r="A289" s="1"/>
     </row>
     <row r="290" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A290" s="14"/>
+      <c r="A290" s="1"/>
     </row>
     <row r="291" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A291" s="14"/>
+      <c r="A291" s="1"/>
     </row>
     <row r="292" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A292" s="14"/>
+      <c r="A292" s="1"/>
     </row>
     <row r="293" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A293" s="14"/>
+      <c r="A293" s="1"/>
     </row>
     <row r="294" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A294" s="14"/>
+      <c r="A294" s="1"/>
     </row>
     <row r="295" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A295" s="14"/>
+      <c r="A295" s="1"/>
     </row>
     <row r="296" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A296" s="14"/>
+      <c r="A296" s="1"/>
     </row>
     <row r="297" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A297" s="14"/>
+      <c r="A297" s="1"/>
     </row>
     <row r="298" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A298" s="14"/>
+      <c r="A298" s="1"/>
     </row>
     <row r="299" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A299" s="14"/>
+      <c r="A299" s="1"/>
     </row>
     <row r="300" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A300" s="14"/>
+      <c r="A300" s="1"/>
     </row>
     <row r="301" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A301" s="14"/>
+      <c r="A301" s="1"/>
     </row>
     <row r="302" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A302" s="14"/>
+      <c r="A302" s="1"/>
     </row>
     <row r="303" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A303" s="14"/>
+      <c r="A303" s="1"/>
     </row>
     <row r="304" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A304" s="14"/>
+      <c r="A304" s="1"/>
     </row>
     <row r="305" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A305" s="14"/>
+      <c r="A305" s="1"/>
     </row>
     <row r="306" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A306" s="14"/>
+      <c r="A306" s="1"/>
     </row>
     <row r="307" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A307" s="14"/>
+      <c r="A307" s="1"/>
     </row>
     <row r="308" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A308" s="14"/>
+      <c r="A308" s="1"/>
     </row>
     <row r="309" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A309" s="14"/>
+      <c r="A309" s="1"/>
     </row>
     <row r="310" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A310" s="14"/>
+      <c r="A310" s="1"/>
     </row>
     <row r="311" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A311" s="14"/>
+      <c r="A311" s="1"/>
     </row>
     <row r="312" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A312" s="14"/>
+      <c r="A312" s="1"/>
     </row>
     <row r="313" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A313" s="14"/>
+      <c r="A313" s="1"/>
     </row>
     <row r="314" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A314" s="14"/>
+      <c r="A314" s="1"/>
     </row>
     <row r="315" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A315" s="14"/>
+      <c r="A315" s="1"/>
     </row>
     <row r="316" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A316" s="14"/>
+      <c r="A316" s="1"/>
     </row>
     <row r="317" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A317" s="14"/>
+      <c r="A317" s="1"/>
     </row>
     <row r="318" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A318" s="14"/>
+      <c r="A318" s="1"/>
     </row>
     <row r="319" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A319" s="14"/>
+      <c r="A319" s="1"/>
     </row>
     <row r="320" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A320" s="14"/>
+      <c r="A320" s="1"/>
     </row>
     <row r="321" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A321" s="14"/>
+      <c r="A321" s="1"/>
     </row>
     <row r="322" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A322" s="14"/>
+      <c r="A322" s="1"/>
     </row>
     <row r="323" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A323" s="14"/>
+      <c r="A323" s="1"/>
     </row>
     <row r="324" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A324" s="14"/>
+      <c r="A324" s="1"/>
     </row>
     <row r="325" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A325" s="14"/>
+      <c r="A325" s="1"/>
     </row>
     <row r="326" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A326" s="14"/>
+      <c r="A326" s="1"/>
     </row>
     <row r="327" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A327" s="14"/>
+      <c r="A327" s="1"/>
     </row>
     <row r="328" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A328" s="14"/>
+      <c r="A328" s="1"/>
     </row>
     <row r="329" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A329" s="14"/>
+      <c r="A329" s="1"/>
     </row>
     <row r="330" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A330" s="14"/>
+      <c r="A330" s="1"/>
     </row>
     <row r="331" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A331" s="14"/>
+      <c r="A331" s="1"/>
     </row>
     <row r="332" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A332" s="14"/>
+      <c r="A332" s="1"/>
     </row>
     <row r="333" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A333" s="14"/>
+      <c r="A333" s="1"/>
     </row>
     <row r="334" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A334" s="14"/>
+      <c r="A334" s="1"/>
     </row>
     <row r="335" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A335" s="14"/>
+      <c r="A335" s="1"/>
     </row>
     <row r="336" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A336" s="14"/>
+      <c r="A336" s="1"/>
     </row>
     <row r="337" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A337" s="14"/>
+      <c r="A337" s="1"/>
     </row>
     <row r="338" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A338" s="14"/>
+      <c r="A338" s="1"/>
     </row>
     <row r="339" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A339" s="14"/>
+      <c r="A339" s="1"/>
     </row>
     <row r="340" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A340" s="14"/>
+      <c r="A340" s="1"/>
     </row>
     <row r="341" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A341" s="14"/>
+      <c r="A341" s="1"/>
     </row>
     <row r="342" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A342" s="14"/>
+      <c r="A342" s="1"/>
     </row>
     <row r="343" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A343" s="14"/>
+      <c r="A343" s="1"/>
     </row>
     <row r="344" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A344" s="14"/>
+      <c r="A344" s="1"/>
     </row>
     <row r="345" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A345" s="14"/>
+      <c r="A345" s="1"/>
     </row>
     <row r="346" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A346" s="14"/>
+      <c r="A346" s="1"/>
     </row>
     <row r="347" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A347" s="14"/>
+      <c r="A347" s="1"/>
     </row>
     <row r="348" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A348" s="14"/>
+      <c r="A348" s="1"/>
     </row>
     <row r="349" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A349" s="14"/>
+      <c r="A349" s="1"/>
     </row>
     <row r="350" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A350" s="14"/>
+      <c r="A350" s="1"/>
     </row>
     <row r="351" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A351" s="14"/>
+      <c r="A351" s="1"/>
     </row>
     <row r="352" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A352" s="14"/>
+      <c r="A352" s="1"/>
     </row>
     <row r="353" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A353" s="14"/>
+      <c r="A353" s="1"/>
     </row>
     <row r="354" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A354" s="14"/>
+      <c r="A354" s="1"/>
     </row>
     <row r="355" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A355" s="14"/>
+      <c r="A355" s="1"/>
     </row>
     <row r="356" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A356" s="14"/>
+      <c r="A356" s="1"/>
     </row>
     <row r="357" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A357" s="14"/>
+      <c r="A357" s="1"/>
     </row>
     <row r="358" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A358" s="14"/>
+      <c r="A358" s="1"/>
     </row>
     <row r="359" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A359" s="14"/>
+      <c r="A359" s="1"/>
     </row>
     <row r="360" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A360" s="14"/>
+      <c r="A360" s="1"/>
     </row>
     <row r="361" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A361" s="14"/>
+      <c r="A361" s="1"/>
     </row>
     <row r="362" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A362" s="14"/>
+      <c r="A362" s="1"/>
     </row>
     <row r="363" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A363" s="14"/>
+      <c r="A363" s="1"/>
     </row>
     <row r="364" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A364" s="14"/>
+      <c r="A364" s="1"/>
     </row>
     <row r="365" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A365" s="14"/>
+      <c r="A365" s="1"/>
     </row>
     <row r="366" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A366" s="14"/>
+      <c r="A366" s="1"/>
     </row>
     <row r="367" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A367" s="14"/>
+      <c r="A367" s="1"/>
     </row>
     <row r="368" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A368" s="14"/>
+      <c r="A368" s="1"/>
     </row>
     <row r="369" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A369" s="14"/>
+      <c r="A369" s="1"/>
     </row>
     <row r="370" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A370" s="14"/>
+      <c r="A370" s="1"/>
     </row>
     <row r="371" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A371" s="14"/>
+      <c r="A371" s="1"/>
     </row>
     <row r="372" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A372" s="14"/>
+      <c r="A372" s="1"/>
     </row>
     <row r="373" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A373" s="14"/>
+      <c r="A373" s="1"/>
     </row>
     <row r="374" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A374" s="14"/>
+      <c r="A374" s="1"/>
     </row>
     <row r="375" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A375" s="14"/>
+      <c r="A375" s="1"/>
     </row>
     <row r="376" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A376" s="14"/>
+      <c r="A376" s="1"/>
     </row>
     <row r="377" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A377" s="14"/>
+      <c r="A377" s="1"/>
     </row>
     <row r="378" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A378" s="14"/>
+      <c r="A378" s="1"/>
     </row>
     <row r="379" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A379" s="14"/>
+      <c r="A379" s="1"/>
     </row>
     <row r="380" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A380" s="14"/>
+      <c r="A380" s="1"/>
     </row>
     <row r="381" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A381" s="14"/>
+      <c r="A381" s="1"/>
     </row>
     <row r="382" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A382" s="14"/>
+      <c r="A382" s="1"/>
     </row>
     <row r="383" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A383" s="14"/>
+      <c r="A383" s="1"/>
     </row>
     <row r="384" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A384" s="14"/>
+      <c r="A384" s="1"/>
     </row>
     <row r="385" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A385" s="14"/>
+      <c r="A385" s="1"/>
     </row>
     <row r="386" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A386" s="14"/>
+      <c r="A386" s="1"/>
     </row>
     <row r="387" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A387" s="14"/>
+      <c r="A387" s="1"/>
     </row>
     <row r="388" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A388" s="14"/>
+      <c r="A388" s="1"/>
     </row>
     <row r="389" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A389" s="14"/>
+      <c r="A389" s="1"/>
     </row>
     <row r="390" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A390" s="14"/>
+      <c r="A390" s="1"/>
     </row>
     <row r="391" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A391" s="14"/>
+      <c r="A391" s="1"/>
     </row>
     <row r="392" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A392" s="14"/>
+      <c r="A392" s="1"/>
     </row>
     <row r="393" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A393" s="14"/>
+      <c r="A393" s="1"/>
     </row>
     <row r="394" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A394" s="14"/>
+      <c r="A394" s="1"/>
     </row>
     <row r="395" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A395" s="14"/>
+      <c r="A395" s="1"/>
     </row>
     <row r="396" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A396" s="14"/>
+      <c r="A396" s="1"/>
     </row>
     <row r="397" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A397" s="14"/>
+      <c r="A397" s="1"/>
     </row>
     <row r="398" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A398" s="14"/>
+      <c r="A398" s="1"/>
     </row>
     <row r="399" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A399" s="14"/>
+      <c r="A399" s="1"/>
     </row>
     <row r="400" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A400" s="14"/>
+      <c r="A400" s="1"/>
     </row>
     <row r="401" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A401" s="14"/>
+      <c r="A401" s="1"/>
     </row>
     <row r="402" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A402" s="14"/>
+      <c r="A402" s="1"/>
     </row>
     <row r="403" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A403" s="14"/>
+      <c r="A403" s="1"/>
     </row>
     <row r="404" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A404" s="14"/>
+      <c r="A404" s="1"/>
     </row>
     <row r="405" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A405" s="14"/>
+      <c r="A405" s="1"/>
     </row>
     <row r="406" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A406" s="14"/>
+      <c r="A406" s="1"/>
     </row>
     <row r="407" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A407" s="14"/>
+      <c r="A407" s="1"/>
     </row>
     <row r="408" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A408" s="14"/>
+      <c r="A408" s="1"/>
     </row>
     <row r="409" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A409" s="14"/>
+      <c r="A409" s="1"/>
     </row>
     <row r="410" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A410" s="14"/>
+      <c r="A410" s="1"/>
     </row>
     <row r="411" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A411" s="14"/>
+      <c r="A411" s="1"/>
     </row>
     <row r="412" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A412" s="14"/>
+      <c r="A412" s="1"/>
     </row>
     <row r="413" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A413" s="14"/>
+      <c r="A413" s="1"/>
     </row>
     <row r="414" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A414" s="14"/>
+      <c r="A414" s="1"/>
     </row>
     <row r="415" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A415" s="14"/>
+      <c r="A415" s="1"/>
     </row>
     <row r="416" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A416" s="14"/>
+      <c r="A416" s="1"/>
     </row>
     <row r="417" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A417" s="14"/>
+      <c r="A417" s="1"/>
     </row>
     <row r="418" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A418" s="14"/>
+      <c r="A418" s="1"/>
     </row>
     <row r="419" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A419" s="14"/>
+      <c r="A419" s="1"/>
     </row>
     <row r="420" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A420" s="14"/>
+      <c r="A420" s="1"/>
     </row>
     <row r="421" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A421" s="14"/>
+      <c r="A421" s="1"/>
     </row>
     <row r="422" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A422" s="14"/>
+      <c r="A422" s="1"/>
     </row>
     <row r="423" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A423" s="14"/>
+      <c r="A423" s="1"/>
     </row>
     <row r="424" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A424" s="14"/>
+      <c r="A424" s="1"/>
     </row>
     <row r="425" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A425" s="14"/>
+      <c r="A425" s="1"/>
     </row>
     <row r="426" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A426" s="14"/>
+      <c r="A426" s="1"/>
     </row>
     <row r="427" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A427" s="14"/>
+      <c r="A427" s="1"/>
     </row>
     <row r="428" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A428" s="14"/>
+      <c r="A428" s="1"/>
     </row>
     <row r="429" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A429" s="14"/>
+      <c r="A429" s="1"/>
     </row>
     <row r="430" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A430" s="14"/>
+      <c r="A430" s="1"/>
     </row>
     <row r="431" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A431" s="14"/>
+      <c r="A431" s="1"/>
     </row>
     <row r="432" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A432" s="14"/>
+      <c r="A432" s="1"/>
     </row>
     <row r="433" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A433" s="14"/>
+      <c r="A433" s="1"/>
     </row>
     <row r="434" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A434" s="14"/>
+      <c r="A434" s="1"/>
     </row>
     <row r="435" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A435" s="14"/>
+      <c r="A435" s="1"/>
     </row>
     <row r="436" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A436" s="14"/>
+      <c r="A436" s="1"/>
     </row>
     <row r="437" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A437" s="14"/>
+      <c r="A437" s="1"/>
     </row>
     <row r="438" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A438" s="14"/>
+      <c r="A438" s="1"/>
     </row>
     <row r="439" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A439" s="14"/>
+      <c r="A439" s="1"/>
     </row>
     <row r="440" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A440" s="14"/>
+      <c r="A440" s="1"/>
     </row>
     <row r="441" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A441" s="14"/>
+      <c r="A441" s="1"/>
     </row>
     <row r="442" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A442" s="14"/>
+      <c r="A442" s="1"/>
     </row>
     <row r="443" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A443" s="14"/>
+      <c r="A443" s="1"/>
     </row>
     <row r="444" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A444" s="14"/>
+      <c r="A444" s="1"/>
     </row>
     <row r="445" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A445" s="14"/>
+      <c r="A445" s="1"/>
     </row>
     <row r="446" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A446" s="14"/>
+      <c r="A446" s="1"/>
     </row>
     <row r="447" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A447" s="14"/>
+      <c r="A447" s="1"/>
     </row>
     <row r="448" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A448" s="14"/>
+      <c r="A448" s="1"/>
     </row>
     <row r="449" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A449" s="14"/>
+      <c r="A449" s="1"/>
     </row>
     <row r="450" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A450" s="14"/>
+      <c r="A450" s="1"/>
     </row>
     <row r="451" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A451" s="14"/>
+      <c r="A451" s="1"/>
     </row>
     <row r="452" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A452" s="14"/>
+      <c r="A452" s="1"/>
     </row>
     <row r="453" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A453" s="14"/>
+      <c r="A453" s="1"/>
     </row>
     <row r="454" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A454" s="14"/>
+      <c r="A454" s="1"/>
     </row>
     <row r="455" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A455" s="14"/>
+      <c r="A455" s="1"/>
     </row>
     <row r="456" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A456" s="14"/>
+      <c r="A456" s="1"/>
     </row>
     <row r="457" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A457" s="14"/>
+      <c r="A457" s="1"/>
     </row>
     <row r="458" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A458" s="14"/>
+      <c r="A458" s="1"/>
     </row>
     <row r="459" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A459" s="14"/>
+      <c r="A459" s="1"/>
     </row>
     <row r="460" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A460" s="14"/>
+      <c r="A460" s="1"/>
     </row>
     <row r="461" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A461" s="14"/>
+      <c r="A461" s="1"/>
     </row>
     <row r="462" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A462" s="14"/>
+      <c r="A462" s="1"/>
     </row>
     <row r="463" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A463" s="14"/>
+      <c r="A463" s="1"/>
     </row>
     <row r="464" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A464" s="14"/>
+      <c r="A464" s="1"/>
     </row>
     <row r="465" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A465" s="14"/>
+      <c r="A465" s="1"/>
     </row>
     <row r="466" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A466" s="14"/>
+      <c r="A466" s="1"/>
     </row>
     <row r="467" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A467" s="14"/>
+      <c r="A467" s="1"/>
     </row>
     <row r="468" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A468" s="14"/>
+      <c r="A468" s="1"/>
     </row>
     <row r="469" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A469" s="14"/>
+      <c r="A469" s="1"/>
     </row>
     <row r="470" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A470" s="14"/>
+      <c r="A470" s="1"/>
     </row>
     <row r="471" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A471" s="14"/>
+      <c r="A471" s="1"/>
     </row>
     <row r="472" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A472" s="14"/>
+      <c r="A472" s="1"/>
     </row>
     <row r="473" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A473" s="14"/>
+      <c r="A473" s="1"/>
     </row>
     <row r="474" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A474" s="14"/>
+      <c r="A474" s="1"/>
     </row>
     <row r="475" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A475" s="14"/>
+      <c r="A475" s="1"/>
     </row>
     <row r="476" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A476" s="14"/>
+      <c r="A476" s="1"/>
     </row>
     <row r="477" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A477" s="14"/>
+      <c r="A477" s="1"/>
     </row>
     <row r="478" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A478" s="14"/>
+      <c r="A478" s="1"/>
     </row>
     <row r="479" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A479" s="14"/>
+      <c r="A479" s="1"/>
     </row>
     <row r="480" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A480" s="14"/>
+      <c r="A480" s="1"/>
     </row>
     <row r="481" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A481" s="14"/>
+      <c r="A481" s="1"/>
     </row>
     <row r="482" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A482" s="14"/>
+      <c r="A482" s="1"/>
     </row>
     <row r="483" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A483" s="14"/>
+      <c r="A483" s="1"/>
     </row>
     <row r="484" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A484" s="14"/>
+      <c r="A484" s="1"/>
     </row>
     <row r="485" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A485" s="14"/>
+      <c r="A485" s="1"/>
     </row>
     <row r="486" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A486" s="14"/>
+      <c r="A486" s="1"/>
     </row>
     <row r="487" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A487" s="14"/>
+      <c r="A487" s="1"/>
     </row>
     <row r="488" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A488" s="14"/>
+      <c r="A488" s="1"/>
     </row>
     <row r="489" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A489" s="14"/>
+      <c r="A489" s="1"/>
     </row>
     <row r="490" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A490" s="14"/>
+      <c r="A490" s="1"/>
     </row>
     <row r="491" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A491" s="14"/>
+      <c r="A491" s="1"/>
     </row>
     <row r="492" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A492" s="14"/>
+      <c r="A492" s="1"/>
     </row>
     <row r="493" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A493" s="14"/>
+      <c r="A493" s="1"/>
     </row>
     <row r="494" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A494" s="14"/>
+      <c r="A494" s="1"/>
     </row>
     <row r="495" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A495" s="14"/>
+      <c r="A495" s="1"/>
     </row>
     <row r="496" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A496" s="14"/>
+      <c r="A496" s="1"/>
     </row>
     <row r="497" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A497" s="14"/>
+      <c r="A497" s="1"/>
     </row>
     <row r="498" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A498" s="14"/>
+      <c r="A498" s="1"/>
     </row>
     <row r="499" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A499" s="14"/>
+      <c r="A499" s="1"/>
     </row>
     <row r="500" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A500" s="14"/>
+      <c r="A500" s="1"/>
     </row>
     <row r="501" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A501" s="14"/>
+      <c r="A501" s="1"/>
     </row>
     <row r="502" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A502" s="14"/>
+      <c r="A502" s="1"/>
     </row>
     <row r="503" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A503" s="14"/>
+      <c r="A503" s="1"/>
     </row>
     <row r="504" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A504" s="14"/>
+      <c r="A504" s="1"/>
     </row>
     <row r="505" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A505" s="14"/>
+      <c r="A505" s="1"/>
     </row>
     <row r="506" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A506" s="14"/>
+      <c r="A506" s="1"/>
     </row>
     <row r="507" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A507" s="14"/>
+      <c r="A507" s="1"/>
     </row>
     <row r="508" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A508" s="14"/>
+      <c r="A508" s="1"/>
     </row>
     <row r="509" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A509" s="14"/>
+      <c r="A509" s="1"/>
     </row>
     <row r="510" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A510" s="14"/>
+      <c r="A510" s="1"/>
     </row>
     <row r="511" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A511" s="14"/>
+      <c r="A511" s="1"/>
     </row>
     <row r="512" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A512" s="14"/>
+      <c r="A512" s="1"/>
     </row>
     <row r="513" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A513" s="14"/>
+      <c r="A513" s="1"/>
     </row>
     <row r="514" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A514" s="14"/>
+      <c r="A514" s="1"/>
     </row>
     <row r="515" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A515" s="14"/>
+      <c r="A515" s="1"/>
     </row>
     <row r="516" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A516" s="14"/>
+      <c r="A516" s="1"/>
     </row>
     <row r="517" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A517" s="14"/>
+      <c r="A517" s="1"/>
     </row>
     <row r="518" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A518" s="14"/>
+      <c r="A518" s="1"/>
     </row>
     <row r="519" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A519" s="14"/>
+      <c r="A519" s="1"/>
     </row>
     <row r="520" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A520" s="14"/>
+      <c r="A520" s="1"/>
     </row>
     <row r="521" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A521" s="14"/>
+      <c r="A521" s="1"/>
     </row>
     <row r="522" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A522" s="14"/>
+      <c r="A522" s="1"/>
     </row>
     <row r="523" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A523" s="14"/>
+      <c r="A523" s="1"/>
     </row>
     <row r="524" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A524" s="14"/>
+      <c r="A524" s="1"/>
     </row>
     <row r="525" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A525" s="14"/>
+      <c r="A525" s="1"/>
     </row>
     <row r="526" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A526" s="14"/>
+      <c r="A526" s="1"/>
     </row>
     <row r="527" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A527" s="14"/>
+      <c r="A527" s="1"/>
     </row>
     <row r="528" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A528" s="14"/>
+      <c r="A528" s="1"/>
     </row>
     <row r="529" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A529" s="14"/>
+      <c r="A529" s="1"/>
     </row>
     <row r="530" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A530" s="14"/>
+      <c r="A530" s="1"/>
     </row>
     <row r="531" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A531" s="14"/>
+      <c r="A531" s="1"/>
     </row>
     <row r="532" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A532" s="14"/>
+      <c r="A532" s="1"/>
     </row>
     <row r="533" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A533" s="14"/>
+      <c r="A533" s="1"/>
     </row>
     <row r="534" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A534" s="14"/>
+      <c r="A534" s="1"/>
     </row>
     <row r="535" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A535" s="14"/>
+      <c r="A535" s="1"/>
     </row>
     <row r="536" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A536" s="14"/>
+      <c r="A536" s="1"/>
     </row>
     <row r="537" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A537" s="14"/>
+      <c r="A537" s="1"/>
     </row>
     <row r="538" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A538" s="14"/>
+      <c r="A538" s="1"/>
     </row>
     <row r="539" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A539" s="14"/>
+      <c r="A539" s="1"/>
     </row>
     <row r="540" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A540" s="14"/>
+      <c r="A540" s="1"/>
     </row>
     <row r="541" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A541" s="14"/>
+      <c r="A541" s="1"/>
     </row>
     <row r="542" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A542" s="14"/>
+      <c r="A542" s="1"/>
     </row>
     <row r="543" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A543" s="14"/>
+      <c r="A543" s="1"/>
     </row>
     <row r="544" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A544" s="14"/>
+      <c r="A544" s="1"/>
     </row>
     <row r="545" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A545" s="14"/>
+      <c r="A545" s="1"/>
     </row>
     <row r="546" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A546" s="14"/>
+      <c r="A546" s="1"/>
     </row>
     <row r="547" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A547" s="14"/>
+      <c r="A547" s="1"/>
     </row>
     <row r="548" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A548" s="14"/>
+      <c r="A548" s="1"/>
     </row>
     <row r="549" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A549" s="14"/>
+      <c r="A549" s="1"/>
     </row>
     <row r="550" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A550" s="14"/>
+      <c r="A550" s="1"/>
     </row>
     <row r="551" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A551" s="14"/>
+      <c r="A551" s="1"/>
     </row>
     <row r="552" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A552" s="14"/>
+      <c r="A552" s="1"/>
     </row>
     <row r="553" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A553" s="14"/>
+      <c r="A553" s="1"/>
     </row>
     <row r="554" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A554" s="14"/>
+      <c r="A554" s="1"/>
     </row>
     <row r="555" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A555" s="14"/>
+      <c r="A555" s="1"/>
     </row>
     <row r="556" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A556" s="14"/>
+      <c r="A556" s="1"/>
     </row>
     <row r="557" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A557" s="14"/>
+      <c r="A557" s="1"/>
     </row>
     <row r="558" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A558" s="14"/>
+      <c r="A558" s="1"/>
     </row>
     <row r="559" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A559" s="14"/>
+      <c r="A559" s="1"/>
     </row>
     <row r="560" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A560" s="14"/>
+      <c r="A560" s="1"/>
     </row>
     <row r="561" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A561" s="14"/>
+      <c r="A561" s="1"/>
     </row>
     <row r="562" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A562" s="14"/>
+      <c r="A562" s="1"/>
     </row>
     <row r="563" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A563" s="14"/>
+      <c r="A563" s="1"/>
     </row>
     <row r="564" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A564" s="14"/>
+      <c r="A564" s="1"/>
     </row>
     <row r="565" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A565" s="14"/>
+      <c r="A565" s="1"/>
     </row>
     <row r="566" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A566" s="14"/>
+      <c r="A566" s="1"/>
     </row>
     <row r="567" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A567" s="14"/>
+      <c r="A567" s="1"/>
     </row>
     <row r="568" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A568" s="14"/>
+      <c r="A568" s="1"/>
     </row>
     <row r="569" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A569" s="14"/>
+      <c r="A569" s="1"/>
     </row>
     <row r="570" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A570" s="14"/>
+      <c r="A570" s="1"/>
     </row>
     <row r="571" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A571" s="14"/>
+      <c r="A571" s="1"/>
     </row>
     <row r="572" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A572" s="14"/>
+      <c r="A572" s="1"/>
     </row>
     <row r="573" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A573" s="14"/>
+      <c r="A573" s="1"/>
     </row>
     <row r="574" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A574" s="14"/>
+      <c r="A574" s="1"/>
     </row>
     <row r="575" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A575" s="14"/>
+      <c r="A575" s="1"/>
     </row>
     <row r="576" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A576" s="14"/>
+      <c r="A576" s="1"/>
     </row>
     <row r="577" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A577" s="14"/>
+      <c r="A577" s="1"/>
     </row>
     <row r="578" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A578" s="14"/>
+      <c r="A578" s="1"/>
     </row>
     <row r="579" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A579" s="14"/>
+      <c r="A579" s="1"/>
     </row>
     <row r="580" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A580" s="14"/>
+      <c r="A580" s="1"/>
     </row>
     <row r="581" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A581" s="14"/>
+      <c r="A581" s="1"/>
     </row>
     <row r="582" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A582" s="14"/>
+      <c r="A582" s="1"/>
     </row>
     <row r="583" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A583" s="14"/>
+      <c r="A583" s="1"/>
     </row>
     <row r="584" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A584" s="14"/>
+      <c r="A584" s="1"/>
     </row>
     <row r="585" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A585" s="14"/>
+      <c r="A585" s="1"/>
     </row>
     <row r="586" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A586" s="14"/>
+      <c r="A586" s="1"/>
     </row>
     <row r="587" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A587" s="14"/>
+      <c r="A587" s="1"/>
     </row>
     <row r="588" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A588" s="14"/>
+      <c r="A588" s="1"/>
     </row>
     <row r="589" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A589" s="14"/>
+      <c r="A589" s="1"/>
     </row>
     <row r="590" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A590" s="14"/>
+      <c r="A590" s="1"/>
     </row>
     <row r="591" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A591" s="14"/>
+      <c r="A591" s="1"/>
     </row>
     <row r="592" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A592" s="14"/>
+      <c r="A592" s="1"/>
     </row>
     <row r="593" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A593" s="14"/>
+      <c r="A593" s="1"/>
     </row>
     <row r="594" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A594" s="14"/>
+      <c r="A594" s="1"/>
     </row>
     <row r="595" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A595" s="14"/>
+      <c r="A595" s="1"/>
     </row>
     <row r="596" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A596" s="14"/>
+      <c r="A596" s="1"/>
     </row>
     <row r="597" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A597" s="14"/>
+      <c r="A597" s="1"/>
     </row>
     <row r="598" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A598" s="14"/>
+      <c r="A598" s="1"/>
     </row>
     <row r="599" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A599" s="14"/>
+      <c r="A599" s="1"/>
     </row>
     <row r="600" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A600" s="14"/>
+      <c r="A600" s="1"/>
     </row>
     <row r="601" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A601" s="14"/>
+      <c r="A601" s="1"/>
     </row>
     <row r="602" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A602" s="14"/>
+      <c r="A602" s="1"/>
     </row>
     <row r="603" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A603" s="14"/>
+      <c r="A603" s="1"/>
     </row>
     <row r="604" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A604" s="14"/>
+      <c r="A604" s="1"/>
     </row>
     <row r="605" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A605" s="14"/>
+      <c r="A605" s="1"/>
     </row>
     <row r="606" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A606" s="14"/>
+      <c r="A606" s="1"/>
     </row>
     <row r="607" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A607" s="14"/>
+      <c r="A607" s="1"/>
     </row>
     <row r="608" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A608" s="14"/>
+      <c r="A608" s="1"/>
     </row>
     <row r="609" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A609" s="14"/>
+      <c r="A609" s="1"/>
     </row>
     <row r="610" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A610" s="14"/>
+      <c r="A610" s="1"/>
     </row>
     <row r="611" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A611" s="14"/>
+      <c r="A611" s="1"/>
     </row>
     <row r="612" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A612" s="14"/>
+      <c r="A612" s="1"/>
     </row>
     <row r="613" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A613" s="14"/>
+      <c r="A613" s="1"/>
     </row>
     <row r="614" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A614" s="14"/>
+      <c r="A614" s="1"/>
     </row>
     <row r="615" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A615" s="14"/>
+      <c r="A615" s="1"/>
     </row>
     <row r="616" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A616" s="14"/>
+      <c r="A616" s="1"/>
     </row>
     <row r="617" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A617" s="14"/>
+      <c r="A617" s="1"/>
     </row>
     <row r="618" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A618" s="14"/>
+      <c r="A618" s="1"/>
     </row>
     <row r="619" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A619" s="14"/>
+      <c r="A619" s="1"/>
     </row>
     <row r="620" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A620" s="14"/>
+      <c r="A620" s="1"/>
     </row>
     <row r="621" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A621" s="14"/>
+      <c r="A621" s="1"/>
     </row>
     <row r="622" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A622" s="14"/>
+      <c r="A622" s="1"/>
     </row>
     <row r="623" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A623" s="14"/>
+      <c r="A623" s="1"/>
     </row>
     <row r="624" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A624" s="14"/>
+      <c r="A624" s="1"/>
     </row>
     <row r="625" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A625" s="14"/>
+      <c r="A625" s="1"/>
     </row>
     <row r="626" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A626" s="14"/>
+      <c r="A626" s="1"/>
     </row>
     <row r="627" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A627" s="14"/>
+      <c r="A627" s="1"/>
     </row>
     <row r="628" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A628" s="14"/>
+      <c r="A628" s="1"/>
     </row>
     <row r="629" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A629" s="14"/>
+      <c r="A629" s="1"/>
     </row>
     <row r="630" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A630" s="14"/>
+      <c r="A630" s="1"/>
     </row>
     <row r="631" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A631" s="14"/>
+      <c r="A631" s="1"/>
     </row>
     <row r="632" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A632" s="14"/>
+      <c r="A632" s="1"/>
     </row>
     <row r="633" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A633" s="14"/>
+      <c r="A633" s="1"/>
     </row>
     <row r="634" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A634" s="14"/>
+      <c r="A634" s="1"/>
     </row>
     <row r="635" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A635" s="14"/>
+      <c r="A635" s="1"/>
     </row>
     <row r="636" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A636" s="14"/>
+      <c r="A636" s="1"/>
     </row>
     <row r="637" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A637" s="14"/>
+      <c r="A637" s="1"/>
     </row>
     <row r="638" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A638" s="14"/>
+      <c r="A638" s="1"/>
     </row>
     <row r="639" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A639" s="14"/>
+      <c r="A639" s="1"/>
     </row>
     <row r="640" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A640" s="14"/>
+      <c r="A640" s="1"/>
     </row>
     <row r="641" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A641" s="14"/>
+      <c r="A641" s="1"/>
     </row>
     <row r="642" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A642" s="14"/>
+      <c r="A642" s="1"/>
     </row>
     <row r="643" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A643" s="14"/>
+      <c r="A643" s="1"/>
     </row>
     <row r="644" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A644" s="14"/>
+      <c r="A644" s="1"/>
     </row>
     <row r="645" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A645" s="14"/>
+      <c r="A645" s="1"/>
     </row>
     <row r="646" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A646" s="14"/>
+      <c r="A646" s="1"/>
     </row>
     <row r="647" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A647" s="14"/>
+      <c r="A647" s="1"/>
     </row>
     <row r="648" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A648" s="14"/>
+      <c r="A648" s="1"/>
     </row>
     <row r="649" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A649" s="14"/>
+      <c r="A649" s="1"/>
     </row>
     <row r="650" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A650" s="14"/>
+      <c r="A650" s="1"/>
     </row>
     <row r="651" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A651" s="14"/>
+      <c r="A651" s="1"/>
     </row>
     <row r="652" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A652" s="14"/>
+      <c r="A652" s="1"/>
     </row>
     <row r="653" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A653" s="14"/>
+      <c r="A653" s="1"/>
     </row>
     <row r="654" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A654" s="14"/>
+      <c r="A654" s="1"/>
     </row>
     <row r="655" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A655" s="14"/>
+      <c r="A655" s="1"/>
     </row>
     <row r="656" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A656" s="14"/>
+      <c r="A656" s="1"/>
     </row>
     <row r="657" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A657" s="14"/>
+      <c r="A657" s="1"/>
     </row>
     <row r="658" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A658" s="14"/>
+      <c r="A658" s="1"/>
     </row>
     <row r="659" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A659" s="14"/>
+      <c r="A659" s="1"/>
     </row>
     <row r="660" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A660" s="14"/>
+      <c r="A660" s="1"/>
     </row>
     <row r="661" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A661" s="14"/>
+      <c r="A661" s="1"/>
     </row>
     <row r="662" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A662" s="14"/>
+      <c r="A662" s="1"/>
     </row>
     <row r="663" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A663" s="14"/>
+      <c r="A663" s="1"/>
     </row>
     <row r="664" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A664" s="14"/>
+      <c r="A664" s="1"/>
     </row>
     <row r="665" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A665" s="14"/>
+      <c r="A665" s="1"/>
     </row>
     <row r="666" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A666" s="14"/>
+      <c r="A666" s="1"/>
     </row>
     <row r="667" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A667" s="14"/>
+      <c r="A667" s="1"/>
     </row>
     <row r="668" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A668" s="14"/>
+      <c r="A668" s="1"/>
     </row>
     <row r="669" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A669" s="14"/>
+      <c r="A669" s="1"/>
     </row>
     <row r="670" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A670" s="14"/>
+      <c r="A670" s="1"/>
     </row>
     <row r="671" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A671" s="14"/>
+      <c r="A671" s="1"/>
     </row>
     <row r="672" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A672" s="14"/>
+      <c r="A672" s="1"/>
     </row>
     <row r="673" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A673" s="14"/>
+      <c r="A673" s="1"/>
     </row>
     <row r="674" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A674" s="14"/>
+      <c r="A674" s="1"/>
     </row>
     <row r="675" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A675" s="14"/>
+      <c r="A675" s="1"/>
     </row>
     <row r="676" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A676" s="14"/>
+      <c r="A676" s="1"/>
     </row>
     <row r="677" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A677" s="14"/>
+      <c r="A677" s="1"/>
     </row>
     <row r="678" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A678" s="14"/>
+      <c r="A678" s="1"/>
     </row>
     <row r="679" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A679" s="14"/>
+      <c r="A679" s="1"/>
     </row>
     <row r="680" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A680" s="14"/>
+      <c r="A680" s="1"/>
     </row>
     <row r="681" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A681" s="14"/>
+      <c r="A681" s="1"/>
     </row>
     <row r="682" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A682" s="14"/>
+      <c r="A682" s="1"/>
     </row>
     <row r="683" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A683" s="14"/>
+      <c r="A683" s="1"/>
     </row>
     <row r="684" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A684" s="14"/>
+      <c r="A684" s="1"/>
     </row>
     <row r="685" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A685" s="14"/>
+      <c r="A685" s="1"/>
     </row>
     <row r="686" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A686" s="14"/>
+      <c r="A686" s="1"/>
     </row>
     <row r="687" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A687" s="14"/>
+      <c r="A687" s="1"/>
     </row>
     <row r="688" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A688" s="14"/>
+      <c r="A688" s="1"/>
     </row>
     <row r="689" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A689" s="14"/>
+      <c r="A689" s="1"/>
     </row>
     <row r="690" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A690" s="14"/>
+      <c r="A690" s="1"/>
     </row>
     <row r="691" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A691" s="14"/>
+      <c r="A691" s="1"/>
     </row>
     <row r="692" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A692" s="14"/>
+      <c r="A692" s="1"/>
     </row>
     <row r="693" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A693" s="14"/>
+      <c r="A693" s="1"/>
     </row>
     <row r="694" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A694" s="14"/>
+      <c r="A694" s="1"/>
     </row>
     <row r="695" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A695" s="14"/>
+      <c r="A695" s="1"/>
     </row>
     <row r="696" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A696" s="14"/>
+      <c r="A696" s="1"/>
     </row>
     <row r="697" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A697" s="14"/>
+      <c r="A697" s="1"/>
     </row>
     <row r="698" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A698" s="14"/>
+      <c r="A698" s="1"/>
     </row>
     <row r="699" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A699" s="14"/>
+      <c r="A699" s="1"/>
     </row>
     <row r="700" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A700" s="14"/>
+      <c r="A700" s="1"/>
     </row>
     <row r="701" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A701" s="14"/>
+      <c r="A701" s="1"/>
     </row>
     <row r="702" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A702" s="14"/>
+      <c r="A702" s="1"/>
     </row>
     <row r="703" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A703" s="14"/>
+      <c r="A703" s="1"/>
     </row>
     <row r="704" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A704" s="14"/>
+      <c r="A704" s="1"/>
     </row>
     <row r="705" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A705" s="14"/>
+      <c r="A705" s="1"/>
     </row>
     <row r="706" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A706" s="14"/>
+      <c r="A706" s="1"/>
     </row>
     <row r="707" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A707" s="14"/>
+      <c r="A707" s="1"/>
     </row>
     <row r="708" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A708" s="14"/>
+      <c r="A708" s="1"/>
     </row>
     <row r="709" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A709" s="14"/>
+      <c r="A709" s="1"/>
     </row>
     <row r="710" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A710" s="14"/>
+      <c r="A710" s="1"/>
     </row>
     <row r="711" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A711" s="14"/>
+      <c r="A711" s="1"/>
     </row>
     <row r="712" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A712" s="14"/>
+      <c r="A712" s="1"/>
     </row>
     <row r="713" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A713" s="14"/>
+      <c r="A713" s="1"/>
     </row>
     <row r="714" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A714" s="14"/>
+      <c r="A714" s="1"/>
     </row>
     <row r="715" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A715" s="14"/>
+      <c r="A715" s="1"/>
     </row>
     <row r="716" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A716" s="14"/>
+      <c r="A716" s="1"/>
     </row>
     <row r="717" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A717" s="14"/>
+      <c r="A717" s="1"/>
     </row>
     <row r="718" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A718" s="14"/>
+      <c r="A718" s="1"/>
     </row>
     <row r="719" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A719" s="14"/>
+      <c r="A719" s="1"/>
     </row>
     <row r="720" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A720" s="14"/>
+      <c r="A720" s="1"/>
     </row>
     <row r="721" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A721" s="14"/>
+      <c r="A721" s="1"/>
     </row>
     <row r="722" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A722" s="14"/>
+      <c r="A722" s="1"/>
     </row>
     <row r="723" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A723" s="14"/>
+      <c r="A723" s="1"/>
     </row>
     <row r="724" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A724" s="14"/>
+      <c r="A724" s="1"/>
     </row>
     <row r="725" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A725" s="14"/>
+      <c r="A725" s="1"/>
     </row>
     <row r="726" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A726" s="14"/>
+      <c r="A726" s="1"/>
     </row>
     <row r="727" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A727" s="14"/>
+      <c r="A727" s="1"/>
     </row>
     <row r="728" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A728" s="14"/>
+      <c r="A728" s="1"/>
     </row>
     <row r="729" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A729" s="14"/>
+      <c r="A729" s="1"/>
     </row>
     <row r="730" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A730" s="14"/>
+      <c r="A730" s="1"/>
     </row>
     <row r="731" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A731" s="14"/>
+      <c r="A731" s="1"/>
     </row>
     <row r="732" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A732" s="14"/>
+      <c r="A732" s="1"/>
     </row>
     <row r="733" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A733" s="14"/>
+      <c r="A733" s="1"/>
     </row>
     <row r="734" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A734" s="14"/>
+      <c r="A734" s="1"/>
     </row>
     <row r="735" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A735" s="14"/>
+      <c r="A735" s="1"/>
     </row>
     <row r="736" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A736" s="14"/>
+      <c r="A736" s="1"/>
     </row>
     <row r="737" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A737" s="14"/>
+      <c r="A737" s="1"/>
     </row>
     <row r="738" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A738" s="14"/>
+      <c r="A738" s="1"/>
     </row>
     <row r="739" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A739" s="14"/>
+      <c r="A739" s="1"/>
     </row>
     <row r="740" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A740" s="14"/>
+      <c r="A740" s="1"/>
     </row>
     <row r="741" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A741" s="14"/>
+      <c r="A741" s="1"/>
     </row>
     <row r="742" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A742" s="14"/>
+      <c r="A742" s="1"/>
     </row>
     <row r="743" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A743" s="14"/>
+      <c r="A743" s="1"/>
     </row>
     <row r="744" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A744" s="14"/>
+      <c r="A744" s="1"/>
     </row>
     <row r="745" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A745" s="14"/>
+      <c r="A745" s="1"/>
     </row>
     <row r="746" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A746" s="14"/>
+      <c r="A746" s="1"/>
     </row>
     <row r="747" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A747" s="14"/>
+      <c r="A747" s="1"/>
     </row>
     <row r="748" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A748" s="14"/>
+      <c r="A748" s="1"/>
     </row>
     <row r="749" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A749" s="14"/>
+      <c r="A749" s="1"/>
     </row>
     <row r="750" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A750" s="14"/>
+      <c r="A750" s="1"/>
     </row>
     <row r="751" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A751" s="14"/>
+      <c r="A751" s="1"/>
     </row>
     <row r="752" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A752" s="14"/>
+      <c r="A752" s="1"/>
     </row>
     <row r="753" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A753" s="14"/>
+      <c r="A753" s="1"/>
     </row>
     <row r="754" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A754" s="14"/>
+      <c r="A754" s="1"/>
     </row>
     <row r="755" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A755" s="14"/>
+      <c r="A755" s="1"/>
     </row>
     <row r="756" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A756" s="14"/>
+      <c r="A756" s="1"/>
     </row>
     <row r="757" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A757" s="14"/>
+      <c r="A757" s="1"/>
     </row>
     <row r="758" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A758" s="14"/>
+      <c r="A758" s="1"/>
     </row>
     <row r="759" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A759" s="14"/>
+      <c r="A759" s="1"/>
     </row>
     <row r="760" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A760" s="14"/>
+      <c r="A760" s="1"/>
     </row>
     <row r="761" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A761" s="14"/>
+      <c r="A761" s="1"/>
     </row>
     <row r="762" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A762" s="14"/>
+      <c r="A762" s="1"/>
     </row>
     <row r="763" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A763" s="14"/>
+      <c r="A763" s="1"/>
     </row>
     <row r="764" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A764" s="14"/>
+      <c r="A764" s="1"/>
     </row>
     <row r="765" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A765" s="14"/>
+      <c r="A765" s="1"/>
     </row>
     <row r="766" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A766" s="14"/>
+      <c r="A766" s="1"/>
     </row>
     <row r="767" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A767" s="14"/>
+      <c r="A767" s="1"/>
     </row>
     <row r="768" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A768" s="14"/>
+      <c r="A768" s="1"/>
     </row>
     <row r="769" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A769" s="14"/>
+      <c r="A769" s="1"/>
     </row>
     <row r="770" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A770" s="14"/>
+      <c r="A770" s="1"/>
     </row>
     <row r="771" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A771" s="14"/>
+      <c r="A771" s="1"/>
     </row>
     <row r="772" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A772" s="14"/>
+      <c r="A772" s="1"/>
     </row>
     <row r="773" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A773" s="14"/>
+      <c r="A773" s="1"/>
     </row>
     <row r="774" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A774" s="14"/>
+      <c r="A774" s="1"/>
     </row>
     <row r="775" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A775" s="14"/>
+      <c r="A775" s="1"/>
     </row>
     <row r="776" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A776" s="14"/>
+      <c r="A776" s="1"/>
     </row>
     <row r="777" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A777" s="14"/>
+      <c r="A777" s="1"/>
     </row>
     <row r="778" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A778" s="14"/>
+      <c r="A778" s="1"/>
     </row>
     <row r="779" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A779" s="14"/>
+      <c r="A779" s="1"/>
     </row>
     <row r="780" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A780" s="14"/>
+      <c r="A780" s="1"/>
     </row>
     <row r="781" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A781" s="14"/>
+      <c r="A781" s="1"/>
     </row>
     <row r="782" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A782" s="14"/>
+      <c r="A782" s="1"/>
     </row>
     <row r="783" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A783" s="14"/>
+      <c r="A783" s="1"/>
     </row>
     <row r="784" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A784" s="14"/>
+      <c r="A784" s="1"/>
     </row>
     <row r="785" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A785" s="14"/>
+      <c r="A785" s="1"/>
     </row>
     <row r="786" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A786" s="14"/>
+      <c r="A786" s="1"/>
     </row>
     <row r="787" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A787" s="14"/>
+      <c r="A787" s="1"/>
     </row>
     <row r="788" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A788" s="14"/>
+      <c r="A788" s="1"/>
     </row>
     <row r="789" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A789" s="14"/>
+      <c r="A789" s="1"/>
     </row>
     <row r="790" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A790" s="14"/>
+      <c r="A790" s="1"/>
     </row>
     <row r="791" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A791" s="14"/>
+      <c r="A791" s="1"/>
     </row>
     <row r="792" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A792" s="14"/>
+      <c r="A792" s="1"/>
     </row>
     <row r="793" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A793" s="14"/>
+      <c r="A793" s="1"/>
     </row>
     <row r="794" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A794" s="14"/>
+      <c r="A794" s="1"/>
     </row>
     <row r="795" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A795" s="14"/>
+      <c r="A795" s="1"/>
     </row>
     <row r="796" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A796" s="14"/>
+      <c r="A796" s="1"/>
     </row>
     <row r="797" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A797" s="14"/>
+      <c r="A797" s="1"/>
     </row>
     <row r="798" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A798" s="14"/>
+      <c r="A798" s="1"/>
     </row>
     <row r="799" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A799" s="14"/>
+      <c r="A799" s="1"/>
     </row>
     <row r="800" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A800" s="14"/>
+      <c r="A800" s="1"/>
     </row>
     <row r="801" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A801" s="14"/>
+      <c r="A801" s="1"/>
     </row>
     <row r="802" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A802" s="14"/>
+      <c r="A802" s="1"/>
     </row>
     <row r="803" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A803" s="14"/>
+      <c r="A803" s="1"/>
     </row>
     <row r="804" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A804" s="14"/>
+      <c r="A804" s="1"/>
     </row>
     <row r="805" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A805" s="14"/>
+      <c r="A805" s="1"/>
     </row>
     <row r="806" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A806" s="14"/>
+      <c r="A806" s="1"/>
     </row>
     <row r="807" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A807" s="14"/>
+      <c r="A807" s="1"/>
     </row>
     <row r="808" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A808" s="14"/>
+      <c r="A808" s="1"/>
     </row>
     <row r="809" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A809" s="14"/>
+      <c r="A809" s="1"/>
     </row>
     <row r="810" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A810" s="14"/>
+      <c r="A810" s="1"/>
     </row>
     <row r="811" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A811" s="14"/>
+      <c r="A811" s="1"/>
     </row>
     <row r="812" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A812" s="14"/>
+      <c r="A812" s="1"/>
     </row>
     <row r="813" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A813" s="14"/>
+      <c r="A813" s="1"/>
     </row>
     <row r="814" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A814" s="14"/>
+      <c r="A814" s="1"/>
     </row>
     <row r="815" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A815" s="14"/>
+      <c r="A815" s="1"/>
     </row>
     <row r="816" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A816" s="14"/>
+      <c r="A816" s="1"/>
     </row>
     <row r="817" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A817" s="14"/>
+      <c r="A817" s="1"/>
     </row>
     <row r="818" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A818" s="14"/>
+      <c r="A818" s="1"/>
     </row>
     <row r="819" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A819" s="14"/>
+      <c r="A819" s="1"/>
     </row>
     <row r="820" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A820" s="14"/>
+      <c r="A820" s="1"/>
     </row>
     <row r="821" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A821" s="14"/>
+      <c r="A821" s="1"/>
     </row>
     <row r="822" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A822" s="14"/>
+      <c r="A822" s="1"/>
     </row>
     <row r="823" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A823" s="14"/>
+      <c r="A823" s="1"/>
     </row>
     <row r="824" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A824" s="14"/>
+      <c r="A824" s="1"/>
     </row>
     <row r="825" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A825" s="14"/>
+      <c r="A825" s="1"/>
     </row>
     <row r="826" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A826" s="14"/>
+      <c r="A826" s="1"/>
     </row>
     <row r="827" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A827" s="14"/>
+      <c r="A827" s="1"/>
     </row>
     <row r="828" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A828" s="14"/>
+      <c r="A828" s="1"/>
     </row>
     <row r="829" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A829" s="14"/>
+      <c r="A829" s="1"/>
     </row>
     <row r="830" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A830" s="14"/>
+      <c r="A830" s="1"/>
     </row>
     <row r="831" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A831" s="14"/>
+      <c r="A831" s="1"/>
     </row>
     <row r="832" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A832" s="14"/>
+      <c r="A832" s="1"/>
     </row>
     <row r="833" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A833" s="14"/>
+      <c r="A833" s="1"/>
     </row>
     <row r="834" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A834" s="14"/>
+      <c r="A834" s="1"/>
     </row>
     <row r="835" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A835" s="14"/>
+      <c r="A835" s="1"/>
     </row>
     <row r="836" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A836" s="14"/>
+      <c r="A836" s="1"/>
     </row>
     <row r="837" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A837" s="14"/>
+      <c r="A837" s="1"/>
     </row>
     <row r="838" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A838" s="14"/>
+      <c r="A838" s="1"/>
     </row>
     <row r="839" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A839" s="14"/>
+      <c r="A839" s="1"/>
     </row>
     <row r="840" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A840" s="14"/>
+      <c r="A840" s="1"/>
     </row>
     <row r="841" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A841" s="14"/>
+      <c r="A841" s="1"/>
     </row>
     <row r="842" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A842" s="14"/>
+      <c r="A842" s="1"/>
     </row>
     <row r="843" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A843" s="14"/>
+      <c r="A843" s="1"/>
     </row>
     <row r="844" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A844" s="14"/>
+      <c r="A844" s="1"/>
     </row>
     <row r="845" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A845" s="14"/>
+      <c r="A845" s="1"/>
     </row>
     <row r="846" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A846" s="14"/>
+      <c r="A846" s="1"/>
     </row>
     <row r="847" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A847" s="14"/>
+      <c r="A847" s="1"/>
     </row>
     <row r="848" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A848" s="14"/>
+      <c r="A848" s="1"/>
     </row>
     <row r="849" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A849" s="14"/>
+      <c r="A849" s="1"/>
     </row>
     <row r="850" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A850" s="14"/>
+      <c r="A850" s="1"/>
     </row>
     <row r="851" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A851" s="14"/>
+      <c r="A851" s="1"/>
     </row>
     <row r="852" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A852" s="14"/>
+      <c r="A852" s="1"/>
     </row>
     <row r="853" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A853" s="14"/>
+      <c r="A853" s="1"/>
     </row>
     <row r="854" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A854" s="14"/>
+      <c r="A854" s="1"/>
     </row>
     <row r="855" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A855" s="14"/>
+      <c r="A855" s="1"/>
     </row>
     <row r="856" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A856" s="14"/>
+      <c r="A856" s="1"/>
     </row>
     <row r="857" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A857" s="14"/>
+      <c r="A857" s="1"/>
     </row>
     <row r="858" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A858" s="14"/>
+      <c r="A858" s="1"/>
     </row>
     <row r="859" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A859" s="14"/>
+      <c r="A859" s="1"/>
     </row>
     <row r="860" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A860" s="14"/>
+      <c r="A860" s="1"/>
     </row>
     <row r="861" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A861" s="14"/>
+      <c r="A861" s="1"/>
     </row>
     <row r="862" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A862" s="14"/>
+      <c r="A862" s="1"/>
     </row>
     <row r="863" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A863" s="14"/>
+      <c r="A863" s="1"/>
     </row>
     <row r="864" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A864" s="14"/>
+      <c r="A864" s="1"/>
     </row>
     <row r="865" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A865" s="14"/>
+      <c r="A865" s="1"/>
     </row>
     <row r="866" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A866" s="14"/>
+      <c r="A866" s="1"/>
     </row>
     <row r="867" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A867" s="14"/>
+      <c r="A867" s="1"/>
     </row>
     <row r="868" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A868" s="14"/>
+      <c r="A868" s="1"/>
     </row>
     <row r="869" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A869" s="14"/>
+      <c r="A869" s="1"/>
     </row>
     <row r="870" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A870" s="14"/>
+      <c r="A870" s="1"/>
     </row>
     <row r="871" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A871" s="14"/>
+      <c r="A871" s="1"/>
     </row>
     <row r="872" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A872" s="14"/>
+      <c r="A872" s="1"/>
     </row>
     <row r="873" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A873" s="14"/>
+      <c r="A873" s="1"/>
     </row>
     <row r="874" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A874" s="14"/>
+      <c r="A874" s="1"/>
     </row>
     <row r="875" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A875" s="14"/>
+      <c r="A875" s="1"/>
     </row>
     <row r="876" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A876" s="14"/>
+      <c r="A876" s="1"/>
     </row>
     <row r="877" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A877" s="14"/>
+      <c r="A877" s="1"/>
     </row>
     <row r="878" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A878" s="14"/>
+      <c r="A878" s="1"/>
     </row>
     <row r="879" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A879" s="14"/>
+      <c r="A879" s="1"/>
     </row>
     <row r="880" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A880" s="14"/>
+      <c r="A880" s="1"/>
     </row>
     <row r="881" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A881" s="14"/>
+      <c r="A881" s="1"/>
     </row>
     <row r="882" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A882" s="14"/>
+      <c r="A882" s="1"/>
     </row>
     <row r="883" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A883" s="14"/>
+      <c r="A883" s="1"/>
     </row>
     <row r="884" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A884" s="14"/>
+      <c r="A884" s="1"/>
     </row>
     <row r="885" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A885" s="14"/>
+      <c r="A885" s="1"/>
     </row>
     <row r="886" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A886" s="14"/>
+      <c r="A886" s="1"/>
     </row>
     <row r="887" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A887" s="14"/>
+      <c r="A887" s="1"/>
     </row>
     <row r="888" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A888" s="14"/>
+      <c r="A888" s="1"/>
     </row>
     <row r="889" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A889" s="14"/>
+      <c r="A889" s="1"/>
     </row>
     <row r="890" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A890" s="14"/>
+      <c r="A890" s="1"/>
     </row>
     <row r="891" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A891" s="14"/>
+      <c r="A891" s="1"/>
     </row>
     <row r="892" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A892" s="14"/>
+      <c r="A892" s="1"/>
     </row>
     <row r="893" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A893" s="14"/>
+      <c r="A893" s="1"/>
     </row>
     <row r="894" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A894" s="14"/>
+      <c r="A894" s="1"/>
     </row>
     <row r="895" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A895" s="14"/>
+      <c r="A895" s="1"/>
     </row>
     <row r="896" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A896" s="14"/>
+      <c r="A896" s="1"/>
     </row>
     <row r="897" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A897" s="14"/>
+      <c r="A897" s="1"/>
     </row>
     <row r="898" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A898" s="14"/>
+      <c r="A898" s="1"/>
     </row>
     <row r="899" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A899" s="14"/>
+      <c r="A899" s="1"/>
     </row>
     <row r="900" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A900" s="14"/>
+      <c r="A900" s="1"/>
     </row>
     <row r="901" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A901" s="14"/>
+      <c r="A901" s="1"/>
     </row>
     <row r="902" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A902" s="14"/>
+      <c r="A902" s="1"/>
     </row>
     <row r="903" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A903" s="14"/>
+      <c r="A903" s="1"/>
     </row>
     <row r="904" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A904" s="14"/>
+      <c r="A904" s="1"/>
     </row>
     <row r="905" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A905" s="14"/>
+      <c r="A905" s="1"/>
     </row>
     <row r="906" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A906" s="14"/>
+      <c r="A906" s="1"/>
     </row>
     <row r="907" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A907" s="14"/>
+      <c r="A907" s="1"/>
     </row>
     <row r="908" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A908" s="14"/>
+      <c r="A908" s="1"/>
     </row>
     <row r="909" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A909" s="14"/>
+      <c r="A909" s="1"/>
     </row>
     <row r="910" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A910" s="14"/>
+      <c r="A910" s="1"/>
     </row>
     <row r="911" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A911" s="14"/>
+      <c r="A911" s="1"/>
     </row>
     <row r="912" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A912" s="14"/>
+      <c r="A912" s="1"/>
     </row>
     <row r="913" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A913" s="14"/>
+      <c r="A913" s="1"/>
     </row>
     <row r="914" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A914" s="14"/>
+      <c r="A914" s="1"/>
     </row>
     <row r="915" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A915" s="14"/>
+      <c r="A915" s="1"/>
     </row>
     <row r="916" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A916" s="14"/>
+      <c r="A916" s="1"/>
     </row>
     <row r="917" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A917" s="14"/>
+      <c r="A917" s="1"/>
     </row>
     <row r="918" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A918" s="14"/>
+      <c r="A918" s="1"/>
     </row>
     <row r="919" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A919" s="14"/>
+      <c r="A919" s="1"/>
     </row>
     <row r="920" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A920" s="14"/>
+      <c r="A920" s="1"/>
     </row>
     <row r="921" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A921" s="14"/>
+      <c r="A921" s="1"/>
     </row>
     <row r="922" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A922" s="14"/>
+      <c r="A922" s="1"/>
     </row>
     <row r="923" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A923" s="14"/>
+      <c r="A923" s="1"/>
     </row>
     <row r="924" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A924" s="14"/>
+      <c r="A924" s="1"/>
     </row>
     <row r="925" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A925" s="14"/>
+      <c r="A925" s="1"/>
     </row>
     <row r="926" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A926" s="14"/>
+      <c r="A926" s="1"/>
     </row>
     <row r="927" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A927" s="14"/>
+      <c r="A927" s="1"/>
     </row>
     <row r="928" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A928" s="14"/>
+      <c r="A928" s="1"/>
     </row>
     <row r="929" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A929" s="14"/>
+      <c r="A929" s="1"/>
     </row>
     <row r="930" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A930" s="14"/>
+      <c r="A930" s="1"/>
     </row>
     <row r="931" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A931" s="14"/>
+      <c r="A931" s="1"/>
     </row>
     <row r="932" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A932" s="14"/>
+      <c r="A932" s="1"/>
     </row>
     <row r="933" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A933" s="14"/>
+      <c r="A933" s="1"/>
     </row>
     <row r="934" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A934" s="14"/>
+      <c r="A934" s="1"/>
     </row>
     <row r="935" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A935" s="14"/>
+      <c r="A935" s="1"/>
     </row>
     <row r="936" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A936" s="14"/>
+      <c r="A936" s="1"/>
     </row>
     <row r="937" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A937" s="14"/>
+      <c r="A937" s="1"/>
     </row>
     <row r="938" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A938" s="14"/>
+      <c r="A938" s="1"/>
     </row>
     <row r="939" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A939" s="14"/>
+      <c r="A939" s="1"/>
     </row>
     <row r="940" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A940" s="14"/>
+      <c r="A940" s="1"/>
     </row>
     <row r="941" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A941" s="14"/>
+      <c r="A941" s="1"/>
     </row>
     <row r="942" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A942" s="14"/>
+      <c r="A942" s="1"/>
     </row>
     <row r="943" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A943" s="14"/>
+      <c r="A943" s="1"/>
     </row>
     <row r="944" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A944" s="14"/>
+      <c r="A944" s="1"/>
     </row>
     <row r="945" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A945" s="14"/>
+      <c r="A945" s="1"/>
     </row>
     <row r="946" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A946" s="14"/>
+      <c r="A946" s="1"/>
     </row>
     <row r="947" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A947" s="14"/>
+      <c r="A947" s="1"/>
     </row>
     <row r="948" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A948" s="14"/>
+      <c r="A948" s="1"/>
     </row>
     <row r="949" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A949" s="14"/>
+      <c r="A949" s="1"/>
     </row>
     <row r="950" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A950" s="14"/>
+      <c r="A950" s="1"/>
     </row>
     <row r="951" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A951" s="14"/>
+      <c r="A951" s="1"/>
     </row>
     <row r="952" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A952" s="14"/>
+      <c r="A952" s="1"/>
     </row>
     <row r="953" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A953" s="14"/>
+      <c r="A953" s="1"/>
     </row>
     <row r="954" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A954" s="14"/>
+      <c r="A954" s="1"/>
     </row>
     <row r="955" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A955" s="14"/>
+      <c r="A955" s="1"/>
     </row>
     <row r="956" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A956" s="14"/>
+      <c r="A956" s="1"/>
     </row>
     <row r="957" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A957" s="14"/>
+      <c r="A957" s="1"/>
     </row>
     <row r="958" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A958" s="14"/>
+      <c r="A958" s="1"/>
     </row>
     <row r="959" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A959" s="14"/>
+      <c r="A959" s="1"/>
     </row>
     <row r="960" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A960" s="14"/>
+      <c r="A960" s="1"/>
     </row>
     <row r="961" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A961" s="14"/>
+      <c r="A961" s="1"/>
     </row>
     <row r="962" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A962" s="14"/>
+      <c r="A962" s="1"/>
     </row>
     <row r="963" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A963" s="14"/>
+      <c r="A963" s="1"/>
     </row>
     <row r="964" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A964" s="14"/>
+      <c r="A964" s="1"/>
     </row>
     <row r="965" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A965" s="14"/>
+      <c r="A965" s="1"/>
     </row>
     <row r="966" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A966" s="14"/>
+      <c r="A966" s="1"/>
     </row>
     <row r="967" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A967" s="14"/>
+      <c r="A967" s="1"/>
     </row>
     <row r="968" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A968" s="14"/>
+      <c r="A968" s="1"/>
     </row>
     <row r="969" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A969" s="14"/>
+      <c r="A969" s="1"/>
     </row>
     <row r="970" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A970" s="14"/>
+      <c r="A970" s="1"/>
     </row>
     <row r="971" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A971" s="14"/>
+      <c r="A971" s="1"/>
     </row>
     <row r="972" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A972" s="14"/>
+      <c r="A972" s="1"/>
     </row>
     <row r="973" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A973" s="14"/>
+      <c r="A973" s="1"/>
     </row>
     <row r="974" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A974" s="14"/>
+      <c r="A974" s="1"/>
     </row>
     <row r="975" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A975" s="14"/>
+      <c r="A975" s="1"/>
     </row>
     <row r="976" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A976" s="14"/>
+      <c r="A976" s="1"/>
     </row>
     <row r="977" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A977" s="14"/>
+      <c r="A977" s="1"/>
     </row>
     <row r="978" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A978" s="14"/>
+      <c r="A978" s="1"/>
     </row>
     <row r="979" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A979" s="14"/>
+      <c r="A979" s="1"/>
     </row>
     <row r="980" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A980" s="14"/>
+      <c r="A980" s="1"/>
     </row>
     <row r="981" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A981" s="14"/>
+      <c r="A981" s="1"/>
     </row>
     <row r="982" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A982" s="14"/>
+      <c r="A982" s="1"/>
     </row>
     <row r="983" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A983" s="14"/>
+      <c r="A983" s="1"/>
     </row>
     <row r="984" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A984" s="14"/>
+      <c r="A984" s="1"/>
     </row>
     <row r="985" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A985" s="14"/>
+      <c r="A985" s="1"/>
     </row>
     <row r="986" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A986" s="14"/>
+      <c r="A986" s="1"/>
     </row>
     <row r="987" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A987" s="14"/>
+      <c r="A987" s="1"/>
     </row>
     <row r="988" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A988" s="14"/>
+      <c r="A988" s="1"/>
     </row>
     <row r="989" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A989" s="14"/>
+      <c r="A989" s="1"/>
     </row>
     <row r="990" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A990" s="14"/>
+      <c r="A990" s="1"/>
     </row>
     <row r="991" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A991" s="14"/>
+      <c r="A991" s="1"/>
     </row>
     <row r="992" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A992" s="14"/>
+      <c r="A992" s="1"/>
     </row>
     <row r="993" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A993" s="14"/>
+      <c r="A993" s="1"/>
     </row>
     <row r="994" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A994" s="14"/>
+      <c r="A994" s="1"/>
     </row>
     <row r="995" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A995" s="14"/>
+      <c r="A995" s="1"/>
     </row>
     <row r="996" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A996" s="14"/>
+      <c r="A996" s="1"/>
     </row>
     <row r="997" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A997" s="14"/>
+      <c r="A997" s="1"/>
     </row>
     <row r="998" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A998" s="14"/>
+      <c r="A998" s="1"/>
     </row>
     <row r="999" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A999" s="14"/>
-    </row>
-    <row r="1000" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1000" s="14"/>
+      <c r="A999" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A78:E78"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="D2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>

--- a/src/Leetcode 75 Questions (NeetCode on yt).xlsx
+++ b/src/Leetcode 75 Questions (NeetCode on yt).xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pramoda/eclipse-workspace/JavaProject/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0790751F-2DE1-424D-8CFC-00EE66B9410E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65EA7613-A03B-2044-A536-777A26800FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Follow-Up Tips" sheetId="1" r:id="rId1"/>
+    <sheet name="Approach in Inteview" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="522">
   <si>
     <t>Video Solution</t>
   </si>
@@ -1575,18 +1576,191 @@
     <t>https://structy.net/problems/reverse-list</t>
   </si>
   <si>
+    <t>28.LinkedList</t>
+  </si>
+  <si>
+    <t>zipper lists
+Write a function, zipperLists, that takes in the head of two linked lists as arguments. The function should zipper the two lists together into single linked list by alternating nodes. If one of the linked lists is longer than the other, the resulting list should terminate with the remaining nodes. The function should return the head of the zippered linked list.
+Do this in-place, by mutating the original Nodes.
+You may assume that both input lists are non-empty.</t>
+  </si>
+  <si>
+    <t>https://structy.net/problems/zipper-lists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peronally I feel recursive approach is the best
+Option#1 
+Save the reference const next1 = head1.next before mutating const next2 = head2.next
+head1.next = head2
+head2.next = zipperList(next1,next2)
+officourse check condition for exahaust list to copy over
+Option#2 Iterative but its little tricky to understand using two pointer strategy.
+declare a variable let tail = head1 
+loop through current1!=null &amp;&amp; current2!=null
+we need a counter to determine whether its a odd or even to determine which list value need to be picked. 
+End of the lopp we need to check both of the list whether its exhausted list or not if(current1!=null)  tail.next = current1 
+</t>
+  </si>
+  <si>
+    <t>29.LinkedList</t>
+  </si>
+  <si>
+    <t>https://structy.net/problems/premium/merge-lists</t>
+  </si>
+  <si>
+    <t>merge lists
+Write a function, mergeLists, that takes in the head of two sorted linked lists as arguments. The function should merge the two lists together into single sorted linked list. The function should return the head of the merged linked list.
+Do this in-place, by mutating the original Nodes.
+You may assume that both input lists are non-empty and contain increasing sorted numbers.</t>
+  </si>
+  <si>
+    <t>Option #2: Recursive
+Its pretty easy, add base conditions where both list is not null and if any one of the list is null return other way around.
+check if (a.aval &lt; = b.val)  then take the element from A ,  that can be done in 
+A.next = sortMerge(a .next, b) ; return A, its popped out from the stack when we hit the base case.
+else B.next = sortmerge(A, B.next) and return B
+n = length of list 1
+m = length of list 2
+Time: O(min(n, m))
+Space: O(min(n, m))
+Option # 2 : Iterative
+we can do by using a dummyNode and return that dummyNode.next at the end
+let list3 = dummyHead;
+loop through the both the list and compare
+if(l1.val &lt;= l2.va) then l3.next = l1  point to l1 then move the pointer of l1
+else build the link to l2 
+l3 = l3.next;
+check for exahust list for l1 and l2
+n = length of list 1
+m = length of list 2
+Time: O(min(n, m))
+Space: O(1)</t>
+  </si>
+  <si>
+    <t>30. LinkedList</t>
+  </si>
+  <si>
+    <t>https://structy.net/problems/premium/is-univalue-list</t>
+  </si>
+  <si>
+    <t>is univalue list
+Write a function, isUnivalueList, that takes in the head of a linked list as an argument. The function should return a boolean indicating whether or not the linked list contains exactly one unique value.
+You may assume that the input list is non-empty.</t>
+  </si>
+  <si>
+    <t>Option#1 Take the first item from list and compare with next item  if both does not equal to return false its true.
+n = number of nodes
+Time: O(n)
+Space: O(1)
+Option#2 Recursive, its very easy solution, if you can't do it that means you does not know recursion
+just pass a prev = null  as default so that we can overide next time.
+n = number of nodes
+Time: O(n)
+Space: O(n)</t>
+  </si>
+  <si>
+    <t>31.LinkedList</t>
+  </si>
+  <si>
+    <t>https://structy.net/problems/premium/longest-streak</t>
+  </si>
+  <si>
+    <t>longest streak
+Write a function, longestStreak, that takes in the head of a linked list as an argument. The function should return the length of the longest consecutive streak of the same value within the list.</t>
+  </si>
+  <si>
+    <t>maintain two variables, max and counter always update max if counter greater than max, finally return ,max
+n = number of nodes
+Time: O(n)
+Space: O(1)</t>
+  </si>
+  <si>
+    <t>32.LinlkedList</t>
+  </si>
+  <si>
+    <t>remove node
+Write a function, removeNode, that takes in the head of a linked list and a target value as arguments. The function should delete the node containing the target value from the linked list and return the head of the resulting linked list. If the target appears multiple times in the linked list, only remove the first instance of the target in the list.
+Do this in-place.
+You may assume that the input list is non-empty.</t>
+  </si>
+  <si>
+    <t>https://structy.net/problems/premium/remove-node</t>
+  </si>
+  <si>
+    <t>33.LinkedList</t>
+  </si>
+  <si>
+    <t>https://structy.net/problems/premium/create-linked-list</t>
+  </si>
+  <si>
+    <t>create linked list
+Write a function, createLinkedList, that takes in an array of values as an argument. The function should create a linked list containing each element of the array as the values of the nodes. The function should return the head of the linked list.</t>
+  </si>
+  <si>
+    <t>Option#1 Two pointers, 1) prev and current. Also checl edge check scenarios if first node itself is our target. Don't forget to return head node.
+n = number of nodes
+Time: O(n)
+Space: O(1)
+Option#2
+Two base cases, if head === null return null. 
+if(head.val === target) return head.next // we are returning the next pointer of the matched node
+then set the reference  of all returned stack
+head.next = function() then return head.
+n = number of nodes
+Time: O(n)
+Space: O(n)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Option#1 initial head = null,  if head is null create a new node and assign to it.
+let selected = head
+selected.next = new node();
+selected = selected.next; return head
+n = length of values
+Time: O(n)
+Space: O(n)
+Option #2 Recursive
+Declare a default agrument  i = 0
+ base case would be ( i  ==  array.length )  return null
+head = new node(values[i])
+head.next = createLinkedList(values, i +1)
+return head;
+</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Option #1 : Recursive way,
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Option #1 :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Recursive way,
 // a -&gt; b -&gt; c -&gt; d -&gt; e -&gt; f-&gt; null
 Base case:
 current === null or current.next === null.
 Return Node p   = recursive(current.next)
 current.next,next = current // which is  null in this case.  'f', now pointing to current 'e'
 Now, beak the cycling link current.next = null, which is e -&gt; f. repeat this process until a =&gt; null
-return p.
+return p.(maintain the link)
 n = number of nodes
 Time: O(n)
 Space: O(n)
+Option#1A: recursive
+We need a default argument in function (prev = null)
+Base case would be if head == null return prev : remeber we need to return prev
+const next  = head.next
+head.next = prev
+return reverse(next, head)  (Note: head = current node)
 </t>
     </r>
     <r>
@@ -1611,6 +1785,9 @@
 Null  &lt;-  a      b -&gt; c 
 prev.  curr.    next
 Two pointer strategy, first let prev = null, while current !=null
+store reference fo variable let next = curent.next to move pointer
+now, change the first value to point to null by current.next = prev, now increment prev = current
+return prev
 Now, change the pointer for current to null. Now we broke the link from current to current.next  and change prev to current and current = next .
 keep moving next and prev, unitl current.next point to null. By the time we hit null, prev pointing to last element.
 Time: O(n)
@@ -1618,84 +1795,229 @@
     </r>
   </si>
   <si>
-    <t>28.LinkedList</t>
-  </si>
-  <si>
-    <t>zipper lists
-Write a function, zipperLists, that takes in the head of two linked lists as arguments. The function should zipper the two lists together into single linked list by alternating nodes. If one of the linked lists is longer than the other, the resulting list should terminate with the remaining nodes. The function should return the head of the zippered linked list.
-Do this in-place, by mutating the original Nodes.
-You may assume that both input lists are non-empty.</t>
-  </si>
-  <si>
-    <t>https://structy.net/problems/zipper-lists</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peronally I feel recursive approach is the best
+    <t>34.LinkedList</t>
+  </si>
+  <si>
+    <t>add lists
+Write a function, addLists, that takes in the head of two linked lists, each representing a number. The nodes of the linked lists contain digits as values. The nodes in the input lists are reversed; this means that the least significant digit of the number is the head. The function should return the head of a new linked listed representing the sum of the input lists. The output list should have it's digits reversed as well.</t>
+  </si>
+  <si>
+    <t>https://structy.net/problems/premium/add-lists</t>
+  </si>
+  <si>
+    <t>Palindrome Number
+Given an integer x, return true if x is palindrome integer.
+An integer is a palindrome when it reads the same backward as forward. For example, 121 is palindrome while 123 is not.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/palindrome-number/</t>
+  </si>
+  <si>
+    <t>First of all we should take care of some edge cases. All negative numbers are not palindrome, for example: -123 is not a palindrome since the '-' does not equal to '3'. So we can return false for all negative numbers.
+Now let's think about how to revert the last half of the number. For number 1221, if we do 1221 % 10, we get the last digit 1, to get the second to the last digit, we need to remove the last digit from 1221, we could do so by dividing it by 10, 1221 / 10 = 122. Then we can get the last digit again by doing a modulus by 10, 122 % 10 = 2, and if we multiply the last digit by 10 and add the second last digit, 1 * 10 + 2 = 12, it gives us the reverted number we want. Continuing this process would give us the reverted number with more digits.
+Now the question is, how do we know that we've reached the half of the number?
+Since we divided the number by 10, and multiplied the reversed number by 10, when the original number is less than the reversed number, it means we've processed half of the number digits.
+Complexity Analysis
+Time complexity : O(\log_{10}(n))O(log 10(n)). We divided the input by 10 for every iteration, so the time complexity is O(\log_{10}(n))O(log 10(n))
+Space complexity : O(1)</t>
+  </si>
+  <si>
+    <t>35.Math</t>
+  </si>
+  <si>
+    <t>36.Math</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add Binary
+Given two binary strings a and b, return their sum as a binary string.
+</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/add-binary/</t>
+  </si>
+  <si>
+    <t>1165. Single-Row Keyboard
+There is a special keyboard with all keys in a single row.
+Given a string keyboard of length 26 indicating the layout of the keyboard (indexed from 0 to 25). Initially, your finger is at index 0. To type a character, you have to move your finger to the index of the desired character. The time taken to move your finger from index i to index j is |i - j|.
+You want to type a string word. Write a function to calculate how much time it takes to type it with one finger.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/single-row-keyboard/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Option#1 
+There is a sinple way using built-in functions
+convert a and b into integers 
+compute the sum 
+convert the sum back to binary form
+The overall algorithm has \mathcal{O}(N + M)O(N+M) time complexity and has two drawbacks which could be used against you during the interview.
+1 . In Java this approach is limited by the length of the input strings a and b. Once the string is long enough, the result of conversion into integers will not fit into Integer, Long or BigInteger:
+33 1-bits - and b doesn't fit into Integer.
+65 1-bits - and b doesn't fit into Long.
+500000001 1-bits - and b doesn't fit into BigInteger.
+To fix the issue, one could use standard Bit-by-Bit Computation approach which is suitable for quite long input strings.
+2 . This method has quite low performance in the case of large input numbers.
+To avoid: read string as binary literals , is a number that representd in 0s and 1s (binary dgits)
+const aBin. = `0B${a}`
+get the sum using BigInt(aBin) and to to binary sum.toString(2)
+Option#2
+get the length and while(i &gt;=0 || j &gt;=0)  decrement i -- and j -- 
+collect the last bit but ensure last bit might get exausted so add 0s to the left when indefined
+sum  =( a ^ b ^ c^ ) + sum ,  where is c is carry here defaulted to 0
+Now we have to check  the condition where carry changes and convert back to string. and finally add carry to sum
+</t>
+  </si>
+  <si>
+    <t>37.String</t>
+  </si>
+  <si>
+    <t>Store key board letter to hashmap and values as index.
+Initialize the result variable to 0 which would store the summation of all the distances.
+Declare a variable prev which would store the index of the previous key. Since the starting position is 0, initialize it to 0.
+Traverse word letter-by-letter.
+for each letter get th ABS value of (prev - indext Of(c) ) from hashmap to the result
+update the prev to index of c
+repeat for each characters
+Notes: check another way to solve using bit manipulation</t>
+  </si>
+  <si>
+    <t>38.math</t>
+  </si>
+  <si>
+    <t>1512. Number of Good Pairs
+Given an array of integers nums, return the number of good pairs.
+A pair (i, j) is called good if nums[i] == nums[j] and i &lt; j.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-good-pairs/</t>
+  </si>
+  <si>
+    <t>Count how many times each number appears. If a number appears n times, then n * (n – 1) // 2 good pairs can be made with this number.</t>
+  </si>
+  <si>
+    <t>39.Array</t>
+  </si>
+  <si>
+    <r>
+      <t>loop througth the internal and compare with newinterval and couple of if else statement to insert
+if(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>second element of current interval</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> is less than first element of newinterval ) i.e newinterval[0] is large
+then push current element into result array.
+else if(second elemenrt of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">newinterval is less than current first element 
+then push </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>newinterval</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> into result array
+else replace value of interval[0] = min of (interval[0], currentinter[0])
+interval[0] = Max(interval[1], current[1])
+finally push newinterval into result array.
+Basically you are comparing diagonally  matrix between current item and newinterval
+Note: they are sorted in increasing order
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Time Complexity : O(n)
+Space Complexit: O(n)</t>
+    </r>
+  </si>
+  <si>
+    <t>40.String</t>
+  </si>
+  <si>
+    <t>Longest Common Prefix
+Write a function to find the longest common prefix string amongst an array of strings.
+If there is no common prefix, return an empty string "".
+Example 1:
+Input: strs = ["flower","flow","flight"]
+Output: "fl"</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-common-prefix/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are many ways to solve this problem
+1) Word by Word matching
+2) Chacter by Character matching
+3) Divide and Conquer
+4) Binary tree
+5) Trie
 Option#1 
-Save the reference const next1 = head1.next before mutating const next2 = head2.next
-head1.next = head2
-head2.next = zipperList(next1,next2)
-officourse check condition for exahaust list to copy over
-Option#2 Iterative but its little tricky to understand using two pointer strategy.
-declare a variable let tail = head1 
-loop through current1!=null &amp;&amp; current2!=null
-we need a counter to determine whether its a odd or even to determine which list value need to be picked. 
-End of the lopp we need to check both of the list whether its exhausted list or not if(current1!=null)  tail.next = current1 
+LCP (“geeksforgeeks”, “geeks”, “geek”)
+     =  LCP (LCP (“geeksforgeeks”, “geeks”), “geek”)
+     =  LCP (“geeks”, “geek”) = “geek”
+initialize the prefix, from first element from the array.
+loop throguth the array starting from second element. keep searching prefix using indexOf()
+while(str[1].indexOf!=0 
+then decrement prefix =  prefix.substring(0, prefix.length -1) , if prefix == '' retun '' finally return prefix
+Complexity Analysis
+Time complexity : O(S)O(S) , where S is the sum of all characters in all strings.
+In the worst case all nn strings are the same. 
+The algorithm compares the string S1S1 with the other strings [S2..Sn ] There are SS character comparisons, where SS is the sum of all characters in the input array.
+Space complexity : O(1). We only used constant extra space.
 </t>
   </si>
   <si>
-    <t>29.LinkedList</t>
-  </si>
-  <si>
-    <t>https://structy.net/problems/premium/merge-lists</t>
-  </si>
-  <si>
-    <t>merge lists
-Write a function, mergeLists, that takes in the head of two sorted linked lists as arguments. The function should merge the two lists together into single sorted linked list. The function should return the head of the merged linked list.
-Do this in-place, by mutating the original Nodes.
-You may assume that both input lists are non-empty and contain increasing sorted numbers.</t>
-  </si>
-  <si>
-    <t>Option #2: Recursive
-Its pretty easy, add base conditions where both list is not null and if any one of the list is null return other way around.
-check if (a.aval &lt; = b.val)  then take the element from A ,  that can be done in 
-A.next = sortMerge(a .next, b) ; return A, its popped out from the stack when we hit the base case.
-else B.next = sortmerge(A, B.next) and return B
-n = length of list 1
-m = length of list 2
-Time: O(min(n, m))
-Space: O(min(n, m))
-Option # 2 : Iterative
-we can do by using a dummyNode and return that dummyNode.next at the end
-let list3 = dummyHead;
-loop through the both the list and compare
-if(l1.val &lt;= l2.va) then l3.next = l1  point to l1 then move the pointer of l1
-else build the link to l2 
-l3 = l3.next;
-check for exahust list for l1 and l2
-n = length of list 1
-m = length of list 2
-Time: O(min(n, m))
-Space: O(1)</t>
-  </si>
-  <si>
-    <t>30. LinkedList</t>
-  </si>
-  <si>
-    <t>https://structy.net/problems/premium/is-univalue-list</t>
-  </si>
-  <si>
-    <t>is univalue list
-Write a function, isUnivalueList, that takes in the head of a linked list as an argument. The function should return a boolean indicating whether or not the linked list contains exactly one unique value.
-You may assume that the input list is non-empty.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Option#1 Take the first item from list and compare with next item  if both does not equal to return false its true.
-n = number of nodes
-Time: O(n)
-Space: O(1)
-Option#2 Recursive, its very easy solution, if you can't do it that means you does not know recursion
-just pass a prev = null  as default so that we can overide next time.
+    <t>Approach for the interview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to behave in the interview  ? 
+1. Understanding the problem 
+2. Clarifying questions at the same time think about any edge case scenarios
+3. Layout multiple solution 
+4. Discuss the complexity of proposed solutions
+5. Coding part don't be slow 
+      i)  Speed,
+      ii) Correctnes 
+      iii) Readability
+6. Test 
+7. Explain how the piece of code is going to work.
 </t>
   </si>
 </sst>
@@ -1703,7 +2025,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1714,6 +2036,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1721,38 +2044,45 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1760,12 +2090,14 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1773,6 +2105,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1780,12 +2113,14 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1794,8 +2129,32 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="5"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
-      <sz val="10"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1887,7 +2246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1965,9 +2324,6 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1979,6 +2335,14 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2205,8 +2569,8 @@
   </sheetPr>
   <dimension ref="A1:E999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="E109" sqref="E109"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3514,13 +3878,13 @@
       </c>
     </row>
     <row r="78" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="27" t="s">
+      <c r="A78" s="31" t="s">
         <v>377</v>
       </c>
-      <c r="B78" s="27"/>
-      <c r="C78" s="27"/>
-      <c r="D78" s="27"/>
-      <c r="E78" s="27"/>
+      <c r="B78" s="31"/>
+      <c r="C78" s="31"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
     </row>
     <row r="79" spans="1:5" ht="99" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="8" t="s">
@@ -3535,7 +3899,7 @@
       <c r="D79" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="E79" s="31" t="s">
+      <c r="E79" s="30" t="s">
         <v>450</v>
       </c>
     </row>
@@ -3553,7 +3917,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" ht="88" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="28"/>
+      <c r="A81" s="27"/>
       <c r="B81" s="8" t="s">
         <v>381</v>
       </c>
@@ -3566,7 +3930,7 @@
       </c>
     </row>
     <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="28"/>
+      <c r="A82" s="27"/>
       <c r="B82" s="8" t="s">
         <v>384</v>
       </c>
@@ -3579,7 +3943,7 @@
       </c>
     </row>
     <row r="83" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="28"/>
+      <c r="A83" s="27"/>
       <c r="B83" s="8" t="s">
         <v>387</v>
       </c>
@@ -3592,7 +3956,7 @@
       </c>
     </row>
     <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="28"/>
+      <c r="A84" s="27"/>
       <c r="B84" s="8" t="s">
         <v>390</v>
       </c>
@@ -3605,7 +3969,7 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="29"/>
+      <c r="A85" s="28"/>
       <c r="B85" s="8" t="s">
         <v>391</v>
       </c>
@@ -3618,7 +3982,7 @@
       </c>
     </row>
     <row r="86" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="29"/>
+      <c r="A86" s="28"/>
       <c r="B86" s="8" t="s">
         <v>396</v>
       </c>
@@ -3631,7 +3995,7 @@
       </c>
     </row>
     <row r="87" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="29"/>
+      <c r="A87" s="28"/>
       <c r="B87" s="8" t="s">
         <v>396</v>
       </c>
@@ -3644,14 +4008,14 @@
       </c>
     </row>
     <row r="88" spans="1:5" ht="159" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="29"/>
+      <c r="A88" s="28"/>
       <c r="B88" s="8" t="s">
         <v>400</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="D88" s="30" t="s">
+      <c r="D88" s="29" t="s">
         <v>402</v>
       </c>
       <c r="E88" s="8" t="s">
@@ -3659,20 +4023,20 @@
       </c>
     </row>
     <row r="89" spans="1:5" ht="86" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="29"/>
+      <c r="A89" s="28"/>
       <c r="B89" s="8" t="s">
         <v>404</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="D89" s="29"/>
+      <c r="D89" s="28"/>
       <c r="E89" s="8" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="29"/>
+      <c r="A90" s="28"/>
       <c r="B90" s="8" t="s">
         <v>407</v>
       </c>
@@ -3685,7 +4049,7 @@
       </c>
     </row>
     <row r="91" spans="1:5" ht="83" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="29"/>
+      <c r="A91" s="28"/>
       <c r="B91" s="8" t="s">
         <v>410</v>
       </c>
@@ -3698,7 +4062,7 @@
       </c>
     </row>
     <row r="92" spans="1:5" ht="119" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="29"/>
+      <c r="A92" s="28"/>
       <c r="B92" s="8" t="s">
         <v>413</v>
       </c>
@@ -3711,7 +4075,7 @@
       </c>
     </row>
     <row r="93" spans="1:5" ht="65" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="29"/>
+      <c r="A93" s="28"/>
       <c r="B93" s="10" t="s">
         <v>420</v>
       </c>
@@ -3724,7 +4088,7 @@
       </c>
     </row>
     <row r="94" spans="1:5" ht="177" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="29"/>
+      <c r="A94" s="28"/>
       <c r="B94" s="10" t="s">
         <v>419</v>
       </c>
@@ -3739,7 +4103,7 @@
       </c>
     </row>
     <row r="95" spans="1:5" ht="167" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="29"/>
+      <c r="A95" s="28"/>
       <c r="B95" s="10" t="s">
         <v>421</v>
       </c>
@@ -3754,7 +4118,7 @@
       </c>
     </row>
     <row r="96" spans="1:5" ht="134" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="29"/>
+      <c r="A96" s="28"/>
       <c r="B96" s="10" t="s">
         <v>423</v>
       </c>
@@ -3769,7 +4133,7 @@
       </c>
     </row>
     <row r="97" spans="1:5" ht="196" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="29"/>
+      <c r="A97" s="28"/>
       <c r="B97" s="10" t="s">
         <v>429</v>
       </c>
@@ -3784,7 +4148,7 @@
       </c>
     </row>
     <row r="98" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="29"/>
+      <c r="A98" s="28"/>
       <c r="B98" s="10" t="s">
         <v>433</v>
       </c>
@@ -3910,109 +4274,223 @@
         <v>469</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>470</v>
+        <v>494</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="209" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="1"/>
       <c r="B107" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="C107" s="9" t="s">
         <v>471</v>
       </c>
-      <c r="C107" s="9" t="s">
+      <c r="D107" s="10" t="s">
         <v>472</v>
       </c>
-      <c r="D107" s="10" t="s">
+      <c r="E107" s="10" t="s">
         <v>473</v>
-      </c>
-      <c r="E107" s="10" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="339" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="1"/>
       <c r="B108" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="D108" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="C108" s="9" t="s">
+      <c r="E108" s="10" t="s">
         <v>477</v>
       </c>
-      <c r="D108" s="10" t="s">
-        <v>476</v>
-      </c>
-      <c r="E108" s="10" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="122" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="109" spans="1:5" ht="152" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="1"/>
       <c r="B109" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="D109" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="C109" s="9" t="s">
+      <c r="E109" s="10" t="s">
         <v>481</v>
       </c>
-      <c r="D109" s="10" t="s">
-        <v>480</v>
-      </c>
-      <c r="E109" s="10" t="s">
+    </row>
+    <row r="110" spans="1:5" ht="82" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="1"/>
+      <c r="B110" s="10" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="1"/>
-    </row>
-    <row r="111" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C110" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="D110" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="333" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="1"/>
-    </row>
-    <row r="112" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B111" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="D111" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="199" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="1"/>
-    </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B112" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="108" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="1"/>
-    </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B113" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="D113" s="10" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="409" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="1"/>
-    </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B114" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="D114" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="E114" s="10" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="409" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="1"/>
-    </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B115" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="D115" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="E115" s="10" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="183" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="1"/>
-    </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B116" s="32" t="s">
+        <v>508</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="D116" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="E116" s="10" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="82" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="1"/>
-    </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B117" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="D117" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="E117" s="10" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="180" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="1"/>
-    </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B118" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="E118" s="10" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="371" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="1"/>
-    </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B119" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="D119" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="E119" s="10" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="1"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="1"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="1"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="1"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="1"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="1"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="1"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="1"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="1"/>
     </row>
     <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6781,4 +7259,32 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73BCF831-E166-9F45-98D2-FA64467728B7}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="177.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="33" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="221" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="34" t="s">
+        <v>521</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/Leetcode 75 Questions (NeetCode on yt).xlsx
+++ b/src/Leetcode 75 Questions (NeetCode on yt).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pramoda/eclipse-workspace/JavaProject/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65EA7613-A03B-2044-A536-777A26800FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031F83A2-9A54-7549-9035-4C01BD50EB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Follow-Up Tips" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="523">
   <si>
     <t>Video Solution</t>
   </si>
@@ -1982,6 +1982,23 @@
     <t>https://leetcode.com/problems/longest-common-prefix/</t>
   </si>
   <si>
+    <t>Approach for the interview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to behave in the interview  ? 
+1. Understanding the problem 
+2. Clarifying questions at the same time think about any edge case scenarios
+3. Layout multiple solution 
+4. Discuss the complexity of proposed solutions
+5. Coding part don't be slow 
+      i)  Speed,
+      ii) Correctnes 
+      iii) Readability
+6. Test 
+7. Explain how the piece of code is going to work.
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">There are many ways to solve this problem
 1) Word by Word matching
 2) Chacter by Character matching
@@ -1995,7 +2012,7 @@
 initialize the prefix, from first element from the array.
 loop throguth the array starting from second element. keep searching prefix using indexOf()
 while(str[1].indexOf!=0 
-then decrement prefix =  prefix.substring(0, prefix.length -1) , if prefix == '' retun '' finally return prefix
+then decrement prefix =  prefix.substring(0, prefix.length -1) , if prefix == '' return '' finally return prefix
 Complexity Analysis
 Time complexity : O(S)O(S) , where S is the sum of all characters in all strings.
 In the worst case all nn strings are the same. 
@@ -2004,21 +2021,19 @@
 </t>
   </si>
   <si>
-    <t>Approach for the interview</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How to behave in the interview  ? 
-1. Understanding the problem 
-2. Clarifying questions at the same time think about any edge case scenarios
-3. Layout multiple solution 
-4. Discuss the complexity of proposed solutions
-5. Coding part don't be slow 
-      i)  Speed,
-      ii) Correctnes 
-      iii) Readability
-6. Test 
-7. Explain how the piece of code is going to work.
-</t>
+    <t xml:space="preserve">
+5) Trie:
+Approach:
+Insert all the words one by one in the trie, after inserting we perform walk on the trie
+ * In this walk, we will go deeper until we found a
+ * node having more than 1 children(branching occurs) or 0 children(one of the string get exhausted)
+ * This is because the characters(node in the trie) which present in the longest common
+ * prefix must be the single child of its parent i.e - there should not be branching
+ * in any of these nodes.
+Time Complexity : Inserting all the words in the trie takes O(MN) time and performing a walk on the trie takes O(M) time, where-
+N = Number of strings
+M = Length of the largest string
+Auxiliary Space: To store all the strings we need to allocate O(26*M*N) ~ O(MN) space for the Trie.</t>
   </si>
 </sst>
 </file>
@@ -2246,7 +2261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2336,13 +2351,16 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2569,8 +2587,8 @@
   </sheetPr>
   <dimension ref="A1:E999"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="C120" sqref="C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2579,7 +2597,7 @@
     <col min="2" max="2" width="26.1640625" customWidth="1"/>
     <col min="3" max="3" width="52.33203125" customWidth="1"/>
     <col min="4" max="4" width="40.33203125" customWidth="1"/>
-    <col min="5" max="5" width="80" style="8" customWidth="1"/>
+    <col min="5" max="5" width="100.83203125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -3878,13 +3896,13 @@
       </c>
     </row>
     <row r="78" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="31" t="s">
+      <c r="A78" s="34" t="s">
         <v>377</v>
       </c>
-      <c r="B78" s="31"/>
-      <c r="C78" s="31"/>
-      <c r="D78" s="31"/>
-      <c r="E78" s="31"/>
+      <c r="B78" s="34"/>
+      <c r="C78" s="34"/>
+      <c r="D78" s="34"/>
+      <c r="E78" s="34"/>
     </row>
     <row r="79" spans="1:5" ht="99" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="8" t="s">
@@ -4411,7 +4429,7 @@
     </row>
     <row r="116" spans="1:5" ht="183" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="1"/>
-      <c r="B116" s="32" t="s">
+      <c r="B116" s="31" t="s">
         <v>508</v>
       </c>
       <c r="C116" s="10" t="s">
@@ -4451,7 +4469,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="371" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:5" ht="345" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="1"/>
       <c r="B119" s="10" t="s">
         <v>516</v>
@@ -4462,12 +4480,15 @@
       <c r="D119" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="E119" s="10" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E119" s="35" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="199" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="1"/>
+      <c r="E120" s="10" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="121" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="1"/>
@@ -7265,7 +7286,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73BCF831-E166-9F45-98D2-FA64467728B7}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -7275,13 +7296,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="221" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="33" t="s">
         <v>520</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="221" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="34" t="s">
-        <v>521</v>
       </c>
     </row>
   </sheetData>

--- a/src/Leetcode 75 Questions (NeetCode on yt).xlsx
+++ b/src/Leetcode 75 Questions (NeetCode on yt).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pramoda/eclipse-workspace/JavaProject/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031F83A2-9A54-7549-9035-4C01BD50EB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CFD4E48-25DA-C143-B162-02BA7011096C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="547">
   <si>
     <t>Video Solution</t>
   </si>
@@ -1242,18 +1242,6 @@
     <t>https://leetcode.com/problems/add-digits/</t>
   </si>
   <si>
-    <t>Option 1: Get the reminder%10  then divide the sum/10
-Option 2: 
-How does the above logic works? 
-The original number is divisible by 9 if and only if the sum of its digits is divisible by 9"
-If a number n is divisible by 9, then the sum of its digit until sum becomes single digit is always 9. For example, 
-Let, n = 2880 
-Sum of digits = 2 + 8 + 8 = 18: 18 = 1 + 8 = 9
-A number can be of the form 9x or 9x + k. For the first case, answer is always 9. For the second case, and is always k.
-Time Complexity: \mathcal{O}(1)O(1).
-Space Complexity: O(1)O(1).</t>
-  </si>
-  <si>
     <t>10.Math</t>
   </si>
   <si>
@@ -1302,11 +1290,6 @@
     <t>Write a function, pairProduct, that takes in an array and a target product as arguments. The function should return an array containing a pair of indices whose elements multiply to the given target. The indices returned must be unique.
 Be sure to return the indices, not the elements themselves.
 There is guaranteed to be one such pair whose product is the target.</t>
-  </si>
-  <si>
-    <t>create a hashmap store array number as key and value as index
-then check the complement , to get complement targetProduct/num 
-then return  [hashmap[complement], i]</t>
   </si>
   <si>
     <t>Write a function, combineIntervals, that takes in an array of intervals as an argument. Each interval is an array containing a pair of numbers representing a start and end time. Your function should combine overlapping intervals and return an array containing the combined intervals
@@ -1415,14 +1398,6 @@
 Loop through the numbers unique = unique^num , everything will be zeroed except the unique element and stored in unique variable , because we are doing xor</t>
   </si>
   <si>
-    <t>This sounds easy but its tricky, this is a two pointer solution, first check if there is any 5 in lastIndex.
-If there is, then decrement lastIndex , else if check if there is any 5 in firstIndex. Swap it then increment firstIndex.
-Else keep incrementing firstIndex.
-n = array size
-Time: O(n)
-Space: O(1)</t>
-  </si>
-  <si>
     <t>21.Array</t>
   </si>
   <si>
@@ -1449,34 +1424,9 @@
     <t>https://structy.net/problems/premium/uncompress</t>
   </si>
   <si>
-    <t>It’s a two pointer solution, we need a mechanism to search all starting numbers, declare a string variable with all numbers (0,1… 9). Check whether it’s a number using string includes method and keep incrementing j. we just ensure, jth position at character. in else block do string.slice(i, j) and get the total count for for loop to repeat the characters. then increment j and bring i to the jth position by i = j
-n = number of groups
-m = max num found in any group
-Time: O(n*m)
-Space: O(n*m)</t>
-  </si>
-  <si>
     <t>Using two pointers ,  when both I and j matches , increment j , your number of characters  
 would be (j - I)  also  bring i to the same place as j by I = j ,  keep pushing into a result array
 run unit  j &lt;= length because j should be inclusive.</t>
-  </si>
-  <si>
-    <t>HashMap Solution: 
-Two loops, first loop store all characters with their repeated number of count in hashMap, then second 
-Loop through the string input and compare the input string value against hashMap value into max variable. End of the loop max variable contains the max occurenrece of character.
-n = length of string
-Time: O(n)
-Space: O(n)</t>
-  </si>
-  <si>
-    <t>One pass Hashmap solution : find complement = target - num ( nums array index)
-check if complement in hasMap then return [hashmap[complement], index]
-else hasmap[numbers[i]] = index
-Key :  your key would be actual value 
-value = array index
-n = length of array
-Time: O(n)
-Space: O(n)</t>
   </si>
   <si>
     <t xml:space="preserve">23.LinkList </t>
@@ -1669,12 +1619,6 @@
 Write a function, longestStreak, that takes in the head of a linked list as an argument. The function should return the length of the longest consecutive streak of the same value within the list.</t>
   </si>
   <si>
-    <t>maintain two variables, max and counter always update max if counter greater than max, finally return ,max
-n = number of nodes
-Time: O(n)
-Space: O(1)</t>
-  </si>
-  <si>
     <t>32.LinlkedList</t>
   </si>
   <si>
@@ -1697,104 +1641,6 @@
 Write a function, createLinkedList, that takes in an array of values as an argument. The function should create a linked list containing each element of the array as the values of the nodes. The function should return the head of the linked list.</t>
   </si>
   <si>
-    <t>Option#1 Two pointers, 1) prev and current. Also checl edge check scenarios if first node itself is our target. Don't forget to return head node.
-n = number of nodes
-Time: O(n)
-Space: O(1)
-Option#2
-Two base cases, if head === null return null. 
-if(head.val === target) return head.next // we are returning the next pointer of the matched node
-then set the reference  of all returned stack
-head.next = function() then return head.
-n = number of nodes
-Time: O(n)
-Space: O(n)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Option#1 initial head = null,  if head is null create a new node and assign to it.
-let selected = head
-selected.next = new node();
-selected = selected.next; return head
-n = length of values
-Time: O(n)
-Space: O(n)
-Option #2 Recursive
-Declare a default agrument  i = 0
- base case would be ( i  ==  array.length )  return null
-head = new node(values[i])
-head.next = createLinkedList(values, i +1)
-return head;
-</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Option #1 :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Recursive way,
-// a -&gt; b -&gt; c -&gt; d -&gt; e -&gt; f-&gt; null
-Base case:
-current === null or current.next === null.
-Return Node p   = recursive(current.next)
-current.next,next = current // which is  null in this case.  'f', now pointing to current 'e'
-Now, beak the cycling link current.next = null, which is e -&gt; f. repeat this process until a =&gt; null
-return p.(maintain the link)
-n = number of nodes
-Time: O(n)
-Space: O(n)
-Option#1A: recursive
-We need a default argument in function (prev = null)
-Base case would be if head == null return prev : remeber we need to return prev
-const next  = head.next
-head.next = prev
-return reverse(next, head)  (Note: head = current node)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Option #2:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Null  &lt;-  a      b -&gt; c 
-prev.  curr.    next
-Two pointer strategy, first let prev = null, while current !=null
-store reference fo variable let next = curent.next to move pointer
-now, change the first value to point to null by current.next = prev, now increment prev = current
-return prev
-Now, change the pointer for current to null. Now we broke the link from current to current.next  and change prev to current and current = next .
-keep moving next and prev, unitl current.next point to null. By the time we hit null, prev pointing to last element.
-Time: O(n)
-Space: O(1)</t>
-    </r>
-  </si>
-  <si>
     <t>34.LinkedList</t>
   </si>
   <si>
@@ -1811,15 +1657,6 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/palindrome-number/</t>
-  </si>
-  <si>
-    <t>First of all we should take care of some edge cases. All negative numbers are not palindrome, for example: -123 is not a palindrome since the '-' does not equal to '3'. So we can return false for all negative numbers.
-Now let's think about how to revert the last half of the number. For number 1221, if we do 1221 % 10, we get the last digit 1, to get the second to the last digit, we need to remove the last digit from 1221, we could do so by dividing it by 10, 1221 / 10 = 122. Then we can get the last digit again by doing a modulus by 10, 122 % 10 = 2, and if we multiply the last digit by 10 and add the second last digit, 1 * 10 + 2 = 12, it gives us the reverted number we want. Continuing this process would give us the reverted number with more digits.
-Now the question is, how do we know that we've reached the half of the number?
-Since we divided the number by 10, and multiplied the reversed number by 10, when the original number is less than the reversed number, it means we've processed half of the number digits.
-Complexity Analysis
-Time complexity : O(\log_{10}(n))O(log 10(n)). We divided the input by 10 for every iteration, so the time complexity is O(\log_{10}(n))O(log 10(n))
-Space complexity : O(1)</t>
   </si>
   <si>
     <t>35.Math</t>
@@ -1843,29 +1680,6 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/single-row-keyboard/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Option#1 
-There is a sinple way using built-in functions
-convert a and b into integers 
-compute the sum 
-convert the sum back to binary form
-The overall algorithm has \mathcal{O}(N + M)O(N+M) time complexity and has two drawbacks which could be used against you during the interview.
-1 . In Java this approach is limited by the length of the input strings a and b. Once the string is long enough, the result of conversion into integers will not fit into Integer, Long or BigInteger:
-33 1-bits - and b doesn't fit into Integer.
-65 1-bits - and b doesn't fit into Long.
-500000001 1-bits - and b doesn't fit into BigInteger.
-To fix the issue, one could use standard Bit-by-Bit Computation approach which is suitable for quite long input strings.
-2 . This method has quite low performance in the case of large input numbers.
-To avoid: read string as binary literals , is a number that representd in 0s and 1s (binary dgits)
-const aBin. = `0B${a}`
-get the sum using BigInt(aBin) and to to binary sum.toString(2)
-Option#2
-get the length and while(i &gt;=0 || j &gt;=0)  decrement i -- and j -- 
-collect the last bit but ensure last bit might get exausted so add 0s to the left when indefined
-sum  =( a ^ b ^ c^ ) + sum ,  where is c is carry here defaulted to 0
-Now we have to check  the condition where carry changes and convert back to string. and finally add carry to sum
-</t>
   </si>
   <si>
     <t>37.String</t>
@@ -1999,28 +1813,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">There are many ways to solve this problem
-1) Word by Word matching
-2) Chacter by Character matching
-3) Divide and Conquer
-4) Binary tree
-5) Trie
-Option#1 
-LCP (“geeksforgeeks”, “geeks”, “geek”)
-     =  LCP (LCP (“geeksforgeeks”, “geeks”), “geek”)
-     =  LCP (“geeks”, “geek”) = “geek”
-initialize the prefix, from first element from the array.
-loop throguth the array starting from second element. keep searching prefix using indexOf()
-while(str[1].indexOf!=0 
-then decrement prefix =  prefix.substring(0, prefix.length -1) , if prefix == '' return '' finally return prefix
-Complexity Analysis
-Time complexity : O(S)O(S) , where S is the sum of all characters in all strings.
-In the worst case all nn strings are the same. 
-The algorithm compares the string S1S1 with the other strings [S2..Sn ] There are SS character comparisons, where SS is the sum of all characters in the input array.
-Space complexity : O(1). We only used constant extra space.
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 5) Trie:
 Approach:
@@ -2034,6 +1826,407 @@
 N = Number of strings
 M = Length of the largest string
 Auxiliary Space: To store all the strings we need to allocate O(26*M*N) ~ O(MN) space for the Trie.</t>
+  </si>
+  <si>
+    <t>41. Recursion</t>
+  </si>
+  <si>
+    <t>subsets
+Write a function, subsets, that takes in an array as an argument. The function should return a 2D array where each subarray represents one of the possible subsets of the array.
+The elements within the subsets and the subsets themselves may be returned in any order.
+You may assume that the input array contains unique elements.</t>
+  </si>
+  <si>
+    <t>https://structy.net/problems/premium/subsets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The best approach is recursion, the base would be length of array == 0 , then return [[]]
+take out first element to include later
+then reduce the array using slice(1). 
+Store into a variable which is subsetsWithoutFirst
+Now, will loop through the subsetsWithoutFirst  then copy over the sub element to add first element into it.
+create an array subsetwithFist = []
+subsetwithFirst.push([first, ...sub]
+finally combine withoutfirst and withfirst and return [..subsetWithoutFirst, subsetWiithFirst]
+</t>
+  </si>
+  <si>
+    <t>42. Recursion</t>
+  </si>
+  <si>
+    <t>permutations
+Write a function, permutations, that takes in an array an argument. The function should return a 2D array where each subarray represents one of the possible permutations of the array.
+The subarrays may be returned in any order.
+You may assume that the input array contains unique elements.</t>
+  </si>
+  <si>
+    <t>https://structy.net/problems/premium/permutations</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KukNnoN-SoY</t>
+  </si>
+  <si>
+    <t>Our approach is recursive, similar to subsets, but little different, we need to add first element firs, middle and last for each subsets
+base case  array.length == 0 return [[]]
+take first element and do recursive call  with slice(1) and store in a variable
+which is 2D array from recursive call,  your inner loop should be inclunsive to add at the end.
+const ele =     [...perm.slice(0,i), firstElement, ...perm.slice(i)];
+push into finall array and return final.
+n = length of items array
+Time: ~O(n!)
+Space: ~O(n!)
+Note: watch youtube video to understand another approach</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It’s a two pointer solution, we need a mechanism to search all starting numbers, declare a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>string variable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> with all numbers (0,1… 9). 
+let i = 0, j = 0 ; while(j &lt; s.length)
+Check whether it’s a number using string includes method and keep incrementing j. we just ensure, jth position at character. in else block do string.slice(i, j) which will return digits from the string and get the total count for for loop to repeat the character(s[j]) and push into result array ,  then increment j and bring i to the jth position by i = j
+n = number of groups
+m = max num found in any group
+Time: O(n*m)
+Space: O(n*m)</t>
+    </r>
+  </si>
+  <si>
+    <t>compress
+Write a function, compress, that takes in a string as an argument. The function should return a compressed version of the string where consecutive occurrences of the same characters are compressed into the number of occurrences followed by the character. Single character occurrences should not be changed.</t>
+  </si>
+  <si>
+    <t>https://structy.net/problems/premium/compress</t>
+  </si>
+  <si>
+    <t>Two pointer solution, while(j&lt;=s.length) , let i=0, j =0;  both started at zero just compare zeroth elememnt of I and zeroth element of j, its equal then keep incrementing j, else we know found discontinued character , Now point is get the total number of similar characters , to find num = j -1, then bring i to the jth position i = j for another comparison. keep pushing into resul array.
+n = length of string
+Time: O(n)
+Space: O(n)</t>
+  </si>
+  <si>
+    <t>HashMap Solution: 
+Two loops, first loop store all characters with their repeated count  in hashmap.
+Second, loop through the string again to check count against each character in hasmap. Logic to find max number of repeat character in hashmap, declare a variable let max = null . if(max == nulll || count[char] &gt; count[max] then max = char
+n = length of string
+Time: O(n)
+Space: O(n)</t>
+  </si>
+  <si>
+    <t>create a hashmap store array number as key and value as index
+then check the complement , to get the complement , targetProduct/num , NoteL  pair sum logic targetsum - num
+then return  [hashmap[complement], i]</t>
+  </si>
+  <si>
+    <t>43.Array</t>
+  </si>
+  <si>
+    <t>intersection
+Write a function, intersection, that takes in two arrays, a,b, as arguments. The function should return a new array containing elements that are in both of the two arrays.
+You may assume that each input array does not contain duplicate elements.</t>
+  </si>
+  <si>
+    <t>https://structy.net/problems/premium/intersection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two solution approach, 1) loop through the second array and check against first array using includes(), if it does, add into result array. 
+Seem complexity is high
+n = length of array a, m = length of array b
+Time: O(n*m)
+Space: O(min(n,m))
+2) Create a new Set(a), add first array into set , then  run a second loop against second array and check if set,has( element of b array) then push to result array
+n = length of array a, m = length of array b
+Time: O(n+m)
+Space: O(n)
+seems second approach is promising.
+</t>
+  </si>
+  <si>
+    <t>This sounds easy but its tricky, this is a two pointer solution, solve using while loop, firstIndex = 0, lastIndex = nums.length -1;
+while(firstIndex &lt; lastIndex) first check if there is any 5 in lastIndex.
+If there is, then decrement lastIndex - -  , else if check if there is any 5 in firstIndex. Swap it with lastIndex  then increment firstIndex ++.
+Else keep incrementing firstIndex.
+n = array size
+Time: O(n)
+Space: O(1)</t>
+  </si>
+  <si>
+    <t>Maintain three variables, maxSteak = 0,  and currentSteak = 0; and prevVal = null
+ compare preVal = current.val  then increment currentSteak, else currentStreakl = 1, 
+Now compare currentSteam &gt; MaxSteak if true maxStrek  = currentSteak 
+preVal = current.val for next comparison, return maxSteak
+n = number of nodes
+Time: O(n)
+Space: O(1)</t>
+  </si>
+  <si>
+    <t>Option#1 Two pointers, 1) prev = null  and current = head.  assigned current  node in prev, Also check edge check scenarios if first node itself is our target. Don't forget to return head node.
+n = number of nodes
+Time: O(n)
+Space: O(1)
+Option#2
+Two base cases, if head === null return null. 
+if(head.val === target) return head.next // we are returning the next pointer of the matched node
+then set the reference  of all returned stack
+head.next = function() then return head.
+n = number of nodes
+Time: O(n)
+Space: O(n)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Option#1 
+Create a dummyHead  = new Node(0)
+tail = dummyhead; loop through the array and create  new Node(), tail.next = new Node()
+trai = tail.next, return dummy.next;
+initial head = null,  if head is null create a new node and assign to it.
+let selected = head
+selected.next = new node();
+selected = selected.next; return head
+n = length of values
+Time: O(n)
+Space: O(n)
+Option #2 Recursive
+Declare a default agrument  i = 0 and pass into the function by incremeneting
+ base case would be ( i  ==  array.length )  return null
+head = new node(values[i])
+head.next = createLinkedList(values, i +1)
+return head;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Recursively:
+we need two variables, let remainder = 0, sum = 0, let dumyhead = new Node(null), tail = dummyhead;
+While(current!=null || current2 !=null || remainder !=0) 
+sum  = remainder + current == null ? 0 : curren.val;  add current two value
+remainder = sum &gt;= 10 ? 1: 0
+sum = sum %10;
+tail =  new Node(sum)
+tail = tail.next. 
+now null check before moving to current.next and curren2.next
+</t>
+  </si>
+  <si>
+    <t>44.Binary Tree</t>
+  </si>
+  <si>
+    <t>depth first values
+Write a function, depthFirstValues, that takes in the root of a binary tree. The function should return an array containing all values of the tree in depth-first order.
+Hey. This is our first binary tree problem, so you should be liberal with watching the Approach and Walkthrough. Be productive, not stubborn. -AZ</t>
+  </si>
+  <si>
+    <t>https://structy.net/problems/depth-first-values</t>
+  </si>
+  <si>
+    <t>One pass Hashmap solution : find complement = target - num ( nums array index)
+check if complement in hasMap then return [hashmap[complement], index]
+else hasmap[numbers[i]] = index
+Key :  your key would be array element
+value = array index
+n = length of array
+Time: O(n)
+Space: O(n)</t>
+  </si>
+  <si>
+    <t>45.String</t>
+  </si>
+  <si>
+    <t>lengthOfLongestSubstring</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-substring-without-repeating-characters/solution/</t>
+  </si>
+  <si>
+    <t>{
+        if(s == null &amp;&amp; s.length() == 0) return  0;
+        Set&lt;Character&gt; set  = new HashSet&lt;&gt;();
+        int max = 0, i = 0, j = 0;
+        while (i &lt; s.length()) {
+            if(!set.contains(s.charAt(i))) {
+                set.add(s.charAt(i));
+                i++;
+                max = Math.max(max, set.size());
+            } else {
+                set.remove(s.charAt(j));
+                j++;
+            }
+        }
+        return max;
+    }</t>
+  </si>
+  <si>
+    <t>Option 1: Get the reminder%10  then divide the sum/10
+Option 2: 
+How does the above logic works? 
+The original number is divisible by 9 if and only if the sum of its digits is divisible by 9"
+If a number n is divisible by 9, then the sum of its digit until sum becomes single digit is always 9. For example, 
+Let, n = 2880 
+Sum of digits = 2 + 8 + 8 = 18: 18 = 1 + 8 = 9
+A number can be of the form 9x or 9x + k. For the first case, answer is always 9. For the second case, and is always k.
+Time Complexity: O(1).
+Space Complexity: O(1).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Option#1 
+There is a sinple way using built-in functions
+convert a and b into integers 
+compute the sum 
+convert the sum back to binary form
+The overall algorithm has O(N+M) time complexity and has two drawbacks which could be used against you during the interview.
+1 . In Java this approach is limited by the length of the input strings a and b. Once the string is long enough, the result of conversion into integers will not fit into Integer, Long or BigInteger:
+33 1-bits - and b doesn't fit into Integer.
+65 1-bits - and b doesn't fit into Long.
+500000001 1-bits - and b doesn't fit into BigInteger.
+To fix the issue, one could use standard Bit-by-Bit Computation approach which is suitable for quite long input strings.
+2 . This method has quite low performance in the case of large input numbers.
+To avoid: read string as binary literals , is a number that representd in 0s and 1s (binary dgits)
+const aBin. = `0B${a}`
+get the sum using BigInt(aBin) and to to binary sum.toString(2)
+Option#2
+get the length and while(i &gt;=0 || j &gt;=0)  decrement i -- and j -- 
+collect the last bit but ensure last bit might get exausted so add 0s to the left when indefined
+sum  =( a ^ b ^ c^ ) + sum ,  where is c is carry here defaulted to 0
+Now we have to check  the condition where carry changes and convert back to string. and finally add carry to sum
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">First of all we should take care of some edge cases. All negative numbers are not palindrome, for example: -123 is not a palindrome since the '-' does not equal to '3'. So we can return false for all negative numbers.
+ // Special cases:
+        // As discussed above, when x &lt; 0, x is not a palindrome.
+        // Also if the last digit of the number is 0, in order to be a palindrome,
+        // the first digit of the number also needs to be 0.
+        // Only 0 satisfy this property.
+Now let's think about how to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>revert the last half of the number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. For number 1221, if we do 1221 % 10, we get the last digit 1, to get the second to the last digit, we need to remove the last digit from 1221, we could do so by dividing it by 10, 1221 / 10 = 122. Then we can get the last digit again by doing a modulus by 10, 122 % 10 = 2, and if we multiply the last digit by 10 and add the second last digit, 1 * 10 + 2 = 12, it gives us the reverted number we want. Continuing this process would give us the reverted number with more digits.
+Now the question is, how do we know that we've reached the half of the number?
+Since we divided the number by 10, and multiplied the reversed number by 10, when the original number is less than the reversed number, it means we've processed half of the number digits.
+Complexity Analysis
+Time complexity : O(log 10(n)). We divided the input by 10 for every iteration, so the time complexity is O(log 10(n))
+Space complexity : O(1)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">There are many ways to solve this problem
+1) Word by Word matching
+2) Chacter by Character matching
+3) Divide and Conquer
+4) Binary tree
+5) Trie
+Option#1 
+LCP (“geeksforgeeks”, “geeks”, “geek”)
+     =  LCP (LCP (“geeksforgeeks”, “geeks”), “geek”)
+     =  LCP (“geeks”, “geek”) = “geek”
+take the first element from array as prefix,
+loop throguth the array starting from second element. keep searching prefix using indexOf()
+while(str[1].indexOf!=0 
+then decrement prefix =  prefix.substring(0, prefix.length -1) , if prefix == '' return '' finally return prefix
+Complexity Analysis
+Time complexity : O(S) , where S is the sum of all characters in all strings.
+In the worst case all nn strings are the same. 
+The algorithm compares the string S1S1 with the other strings [S2..Sn ] There are SS character comparisons, where SS is the sum of all characters in the input array.
+Space complexity : O(1). We only used constant extra space.
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Option #1 :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Recursive way,
+// a -&gt; b -&gt; c -&gt; d -&gt; e -&gt; f-&gt; null
+Base case: (current === null or current.next === null) return head; assingn a variable to recursive call.
+Node p   = recursive(current.next)
+current.next,next = current // which is  null in this case.  'f', now pointing to current 'e'
+Now, beak the cycling link current.next = null, which is e -&gt; f. repeat this process until a =&gt; null
+return p.(maintain the link)
+n = number of nodes
+Time: O(n)
+Space: O(n)
+Option#1A: recursive
+We need a default argument in function (prev = null)
+Base case would be if head == null return prev : remeber we need to return prev
+const next  = head.next
+head.next = prev
+return reverse(next, head)  (Note: head = current node)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Option #2:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Null  &lt;-  a      b -&gt; c 
+prev.  curr.    next
+Two pointer strategy, first let prev = null, while current !=null
+store reference variable let next = curent.next to move pointer
+now, change the first value to point to null by current.next = prev, now increment prev = current
+return prev
+Now, change the pointer for current to null. Now we broke the link from current to current.next  and change prev to current and current = next .
+keep moving next and prev, unitl current.next point to null. By the time we hit null, prev pointing to last element.
+Time: O(n)
+Space: O(1)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2261,7 +2454,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2345,9 +2538,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2356,11 +2546,20 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2585,15 +2784,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E999"/>
+  <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="C120" sqref="C120"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="31.5" customWidth="1"/>
+    <col min="1" max="1" width="44.6640625" customWidth="1"/>
     <col min="2" max="2" width="26.1640625" customWidth="1"/>
     <col min="3" max="3" width="52.33203125" customWidth="1"/>
     <col min="4" max="4" width="40.33203125" customWidth="1"/>
@@ -2800,7 +2999,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="16"/>
       <c r="B13" s="17" t="s">
         <v>58</v>
@@ -2815,7 +3014,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
         <v>62</v>
       </c>
@@ -2883,7 +3082,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
         <v>82</v>
       </c>
@@ -2900,7 +3099,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
         <v>87</v>
       </c>
@@ -2934,7 +3133,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
         <v>97</v>
       </c>
@@ -3121,7 +3320,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
         <v>152</v>
       </c>
@@ -3138,7 +3337,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" s="23" t="s">
         <v>157</v>
       </c>
@@ -3155,7 +3354,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" s="23" t="s">
         <v>162</v>
       </c>
@@ -3238,7 +3437,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
         <v>186</v>
       </c>
@@ -3425,7 +3624,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
         <v>241</v>
       </c>
@@ -3459,7 +3658,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A52" s="12" t="s">
         <v>251</v>
       </c>
@@ -3476,7 +3675,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
         <v>256</v>
       </c>
@@ -3508,7 +3707,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="12" t="s">
         <v>265</v>
       </c>
@@ -3693,7 +3892,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A66" s="12" t="s">
         <v>319</v>
       </c>
@@ -3896,15 +4095,15 @@
       </c>
     </row>
     <row r="78" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="34" t="s">
+      <c r="A78" s="37" t="s">
         <v>377</v>
       </c>
-      <c r="B78" s="34"/>
-      <c r="C78" s="34"/>
-      <c r="D78" s="34"/>
-      <c r="E78" s="34"/>
-    </row>
-    <row r="79" spans="1:5" ht="99" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B78" s="37"/>
+      <c r="C78" s="37"/>
+      <c r="D78" s="37"/>
+      <c r="E78" s="37"/>
+    </row>
+    <row r="79" spans="1:5" ht="136" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="8" t="s">
         <v>376</v>
       </c>
@@ -3917,11 +4116,11 @@
       <c r="D79" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="E79" s="30" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E79" s="29" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="83" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="8"/>
       <c r="B80" s="7" t="s">
         <v>378</v>
@@ -4022,7 +4221,7 @@
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="10" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="159" customHeight="1" x14ac:dyDescent="0.15">
@@ -4033,480 +4232,554 @@
       <c r="C88" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="D88" s="29" t="s">
+      <c r="D88" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="E88" s="8" t="s">
-        <v>403</v>
+      <c r="E88" s="10" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="86" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="28"/>
       <c r="B89" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="C89" s="8" t="s">
         <v>404</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>405</v>
       </c>
       <c r="D89" s="28"/>
       <c r="E89" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="28"/>
       <c r="B90" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="C90" s="8" t="s">
         <v>407</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>408</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="83" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="28"/>
       <c r="B91" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="C91" s="8" t="s">
         <v>410</v>
-      </c>
-      <c r="C91" s="8" t="s">
-        <v>411</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="119" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="28"/>
       <c r="B92" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="C92" s="8" t="s">
         <v>413</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>414</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="28"/>
       <c r="B93" s="10" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D93" s="4"/>
-      <c r="E93" s="8" t="s">
-        <v>417</v>
+      <c r="E93" s="10" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="28"/>
       <c r="B94" s="10" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="167" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="28"/>
       <c r="B95" s="10" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>440</v>
+        <v>529</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="134" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="28"/>
       <c r="B96" s="10" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D96" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="E96" s="10" t="s">
         <v>428</v>
-      </c>
-      <c r="E96" s="10" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="196" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="28"/>
       <c r="B97" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="C97" s="9" t="s">
         <v>429</v>
       </c>
-      <c r="C97" s="9" t="s">
-        <v>431</v>
-      </c>
       <c r="D97" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="E97" s="10" t="s">
         <v>432</v>
-      </c>
-      <c r="E97" s="10" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="28"/>
       <c r="B98" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="C98" s="10" t="s">
         <v>433</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>435</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="10" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="111" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="1"/>
       <c r="B99" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="E99" s="10" t="s">
         <v>437</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>438</v>
-      </c>
-      <c r="E99" s="10" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="121" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="1"/>
       <c r="B100" s="10" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="165" customHeight="1" x14ac:dyDescent="0.15">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="144" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="1"/>
       <c r="B101" s="10" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>445</v>
+        <v>520</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>446</v>
+        <v>521</v>
       </c>
       <c r="E101" s="10" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="122" customHeight="1" x14ac:dyDescent="0.15">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="165" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="1"/>
       <c r="B102" s="10" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="137" customHeight="1" x14ac:dyDescent="0.15">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="122" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="1"/>
       <c r="B103" s="10" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="E103" s="10" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="149" customHeight="1" x14ac:dyDescent="0.15">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="137" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="1"/>
       <c r="B104" s="10" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="E104" s="10" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="168" customHeight="1" x14ac:dyDescent="0.15">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="149" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="1"/>
       <c r="B105" s="10" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="E105" s="10" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="337" customHeight="1" x14ac:dyDescent="0.15">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="168" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="1"/>
       <c r="B106" s="10" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="209" customHeight="1" x14ac:dyDescent="0.15">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="367" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="1"/>
       <c r="B107" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="C107" s="9" t="s">
-        <v>471</v>
+        <v>461</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>462</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="E107" s="10" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="339" customHeight="1" x14ac:dyDescent="0.15">
+        <v>463</v>
+      </c>
+      <c r="E107" s="35" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="209" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="1"/>
       <c r="B108" s="10" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="152" customHeight="1" x14ac:dyDescent="0.15">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="339" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="1"/>
       <c r="B109" s="10" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="82" customHeight="1" x14ac:dyDescent="0.15">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="152" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="1"/>
       <c r="B110" s="10" t="s">
-        <v>482</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>484</v>
+        <v>472</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>474</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="E110" s="8" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="333" customHeight="1" x14ac:dyDescent="0.15">
+        <v>473</v>
+      </c>
+      <c r="E110" s="10" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="141" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="1"/>
       <c r="B111" s="10" t="s">
-        <v>486</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>487</v>
+        <v>476</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>478</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="E111" s="8" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="199" customHeight="1" x14ac:dyDescent="0.15">
+        <v>477</v>
+      </c>
+      <c r="E111" s="10" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="246" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="1"/>
       <c r="B112" s="10" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>490</v>
-      </c>
-      <c r="E112" s="8" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="108" customHeight="1" x14ac:dyDescent="0.15">
+        <v>481</v>
+      </c>
+      <c r="E112" s="10" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="199" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="1"/>
       <c r="B113" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="C113" s="9" t="s">
-        <v>496</v>
+        <v>482</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>484</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="409" customHeight="1" x14ac:dyDescent="0.15">
+        <v>483</v>
+      </c>
+      <c r="E113" s="10" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="156" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="1"/>
       <c r="B114" s="10" t="s">
-        <v>501</v>
-      </c>
-      <c r="C114" s="10" t="s">
-        <v>498</v>
+        <v>485</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>486</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="E114" s="10" t="s">
-        <v>500</v>
+        <v>533</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="409" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="1"/>
       <c r="B115" s="10" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="E115" s="10" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="183" customHeight="1" x14ac:dyDescent="0.15">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="409" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="1"/>
-      <c r="B116" s="31" t="s">
-        <v>508</v>
+      <c r="B116" s="10" t="s">
+        <v>491</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="E116" s="10" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" ht="82" customHeight="1" x14ac:dyDescent="0.15">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="183" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="1"/>
-      <c r="B117" s="10" t="s">
-        <v>510</v>
+      <c r="B117" s="30" t="s">
+        <v>496</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>511</v>
+        <v>494</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>512</v>
+        <v>495</v>
       </c>
       <c r="E117" s="10" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="180" customHeight="1" x14ac:dyDescent="0.15">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="82" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="1"/>
       <c r="B118" s="10" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>174</v>
+        <v>499</v>
+      </c>
+      <c r="D118" s="10" t="s">
+        <v>500</v>
       </c>
       <c r="E118" s="10" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" ht="345" customHeight="1" x14ac:dyDescent="0.15">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="180" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="1"/>
       <c r="B119" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="E119" s="10" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="345" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A120" s="1"/>
+      <c r="B120" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="D120" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="E120" s="33" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="199" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A121" s="1"/>
+      <c r="E121" s="10" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="142" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A122" s="1"/>
+      <c r="B122" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="D122" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="E122" s="10" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="186" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A123" s="34" t="s">
+        <v>517</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="D123" s="10" t="s">
         <v>516</v>
       </c>
-      <c r="C119" s="10" t="s">
-        <v>517</v>
-      </c>
-      <c r="D119" s="10" t="s">
+      <c r="E123" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="E119" s="35" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="199" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="1"/>
-      <c r="E120" s="10" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="1"/>
-    </row>
-    <row r="122" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="1"/>
-    </row>
-    <row r="123" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="1"/>
-    </row>
-    <row r="124" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="124" spans="1:5" ht="207" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="1"/>
-    </row>
-    <row r="125" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B124" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="C124" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="D124" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="E124" s="10" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="1"/>
-    </row>
-    <row r="126" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B125" s="10" t="s">
+        <v>534</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="D125" s="10" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="255" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="1"/>
+      <c r="B126" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="C126" s="36" t="s">
+        <v>539</v>
+      </c>
+      <c r="D126" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="E126" s="10" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="127" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="1"/>
@@ -7126,6 +7399,9 @@
     </row>
     <row r="999" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A999" s="1"/>
+    </row>
+    <row r="1000" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1000" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7286,7 +7562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73BCF831-E166-9F45-98D2-FA64467728B7}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -7296,13 +7572,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
-        <v>519</v>
+      <c r="A1" s="31" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="221" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="33" t="s">
-        <v>520</v>
+      <c r="A2" s="32" t="s">
+        <v>508</v>
       </c>
     </row>
   </sheetData>

--- a/src/Leetcode 75 Questions (NeetCode on yt).xlsx
+++ b/src/Leetcode 75 Questions (NeetCode on yt).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pramoda/eclipse-workspace/JavaProject/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CFD4E48-25DA-C143-B162-02BA7011096C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A05599-3990-4746-8A52-C4E37085DAA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2786,8 +2786,8 @@
   </sheetPr>
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="D110" sqref="D110"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/src/Leetcode 75 Questions (NeetCode on yt).xlsx
+++ b/src/Leetcode 75 Questions (NeetCode on yt).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pramoda/eclipse-workspace/JavaProject/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A05599-3990-4746-8A52-C4E37085DAA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85781C17-7B08-A64D-AB72-2B2A3188E881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2786,8 +2786,8 @@
   </sheetPr>
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
